--- a/Revisions/original_data/phenotype_entry_dilution.xlsx
+++ b/Revisions/original_data/phenotype_entry_dilution.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/jc860_exeter_ac_uk/Documents/Data/Bottlenecks/Revisions/original_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcommon/Documents/OneDrive - University of Exeter/Data/Bottlenecks/Revisions/original_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="460" windowWidth="27480" windowHeight="19240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="14000" yWindow="460" windowWidth="27480" windowHeight="19240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Small" sheetId="1" r:id="rId1"/>
@@ -715,13 +715,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -762,7 +762,7 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -800,126 +800,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1232,8 +1112,8 @@
   <dimension ref="A1:R290"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H148" sqref="H148:J148"/>
+      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3:F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1246,28 +1126,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="H1" s="16" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -1323,29 +1203,33 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
       <c r="F3">
         <f>SUM(D3:E3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="4">
         <f>IF(AND(B3="r", C3="s"), 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="4">
         <f>IF(AND(B3="s", C3="s"), 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4">
         <f>IF(AND(B3="r", C3="r"), 1,0)</f>
@@ -1353,11 +1237,11 @@
       </c>
       <c r="K3">
         <f>IF(F3=0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <f>IF(F3=1, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <f>IF(F3=2, 1, 0)</f>
@@ -1377,7 +1261,7 @@
       </c>
       <c r="Q3" s="4">
         <f>IF(F3=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="4">
         <f>IF(F3&gt;1, 1,0)</f>
@@ -1385,7 +1269,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1394,11 +1278,15 @@
       <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
       <c r="F4">
         <f t="shared" ref="F4:F67" si="0">SUM(D4:E4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="4">
@@ -1415,7 +1303,7 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K67" si="4">IF(F4=0, 1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L67" si="5">IF(F4=1, 1,0)</f>
@@ -1423,7 +1311,7 @@
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M67" si="6">IF(F4=2, 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N67" si="7">IF(F4=3, 1, 0)</f>
@@ -1443,11 +1331,11 @@
       </c>
       <c r="R4" s="4">
         <f t="shared" ref="R4:R67" si="11">IF(F4&gt;1, 1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1456,11 +1344,15 @@
       <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="4">
@@ -1477,11 +1369,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <f t="shared" si="6"/>
@@ -1501,7 +1393,7 @@
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="11"/>
@@ -1509,7 +1401,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -1518,11 +1410,15 @@
       <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="4">
@@ -1539,7 +1435,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" si="5"/>
@@ -1547,7 +1443,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <f t="shared" si="7"/>
@@ -1567,11 +1463,11 @@
       </c>
       <c r="R6" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -1580,11 +1476,15 @@
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="4">
@@ -1601,7 +1501,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
@@ -1609,7 +1509,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <f t="shared" si="7"/>
@@ -1629,11 +1529,11 @@
       </c>
       <c r="R7" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -1642,8 +1542,12 @@
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1695,7 +1599,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -1704,11 +1608,15 @@
       <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="4">
@@ -1725,11 +1633,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <f t="shared" si="6"/>
@@ -1749,7 +1657,7 @@
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="4">
         <f t="shared" si="11"/>
@@ -1757,7 +1665,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1766,8 +1674,12 @@
       <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1819,7 +1731,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -1828,11 +1740,15 @@
       <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="4">
@@ -1849,11 +1765,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <f t="shared" si="6"/>
@@ -1873,7 +1789,7 @@
       </c>
       <c r="Q11" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="4">
         <f t="shared" si="11"/>
@@ -1881,7 +1797,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1890,11 +1806,15 @@
       <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2</v>
+      </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="4">
@@ -1911,7 +1831,7 @@
       </c>
       <c r="K12">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <f t="shared" si="5"/>
@@ -1919,7 +1839,7 @@
       </c>
       <c r="M12">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <f t="shared" si="7"/>
@@ -1939,21 +1859,25 @@
       </c>
       <c r="R12" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1961,7 +1885,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="2"/>
@@ -1969,7 +1893,7 @@
       </c>
       <c r="J13" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <f t="shared" si="4"/>
@@ -2005,25 +1929,29 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="2"/>
@@ -2031,15 +1959,15 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <f t="shared" si="6"/>
@@ -2059,7 +1987,7 @@
       </c>
       <c r="Q14" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="4">
         <f t="shared" si="11"/>
@@ -2067,7 +1995,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -2076,11 +2004,15 @@
       <c r="C15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="13">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="4">
@@ -2097,7 +2029,7 @@
       </c>
       <c r="K15">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <f t="shared" si="5"/>
@@ -2109,7 +2041,7 @@
       </c>
       <c r="N15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
         <f t="shared" si="8"/>
@@ -2125,11 +2057,11 @@
       </c>
       <c r="R15" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -2138,8 +2070,12 @@
       <c r="C16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2191,7 +2127,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -2200,11 +2136,15 @@
       <c r="C17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="4">
@@ -2221,11 +2161,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <f t="shared" si="6"/>
@@ -2245,7 +2185,7 @@
       </c>
       <c r="Q17" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="4">
         <f t="shared" si="11"/>
@@ -2253,7 +2193,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -2262,11 +2202,15 @@
       <c r="C18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="6"/>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2</v>
+      </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="4">
@@ -2283,7 +2227,7 @@
       </c>
       <c r="K18">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <f t="shared" si="5"/>
@@ -2291,7 +2235,7 @@
       </c>
       <c r="M18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <f t="shared" si="7"/>
@@ -2311,11 +2255,11 @@
       </c>
       <c r="R18" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -2324,11 +2268,15 @@
       <c r="C19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="6"/>
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2</v>
+      </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="4">
@@ -2345,7 +2293,7 @@
       </c>
       <c r="K19">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <f t="shared" si="5"/>
@@ -2353,7 +2301,7 @@
       </c>
       <c r="M19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <f t="shared" si="7"/>
@@ -2373,11 +2321,11 @@
       </c>
       <c r="R19" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -2386,11 +2334,15 @@
       <c r="C20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="6"/>
+      <c r="D20" s="13">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="4">
@@ -2407,11 +2359,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <f t="shared" si="6"/>
@@ -2431,7 +2383,7 @@
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="4">
         <f t="shared" si="11"/>
@@ -2439,7 +2391,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -2448,8 +2400,12 @@
       <c r="C21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="6"/>
+      <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
       <c r="F21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2501,7 +2457,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -2510,8 +2466,12 @@
       <c r="C22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="6"/>
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
       <c r="F22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2563,7 +2523,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -2572,11 +2532,15 @@
       <c r="C23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="6"/>
+      <c r="D23" s="13">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="4">
@@ -2593,11 +2557,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
         <f t="shared" si="6"/>
@@ -2617,7 +2581,7 @@
       </c>
       <c r="Q23" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="4">
         <f t="shared" si="11"/>
@@ -2625,7 +2589,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -2634,11 +2598,15 @@
       <c r="C24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="6"/>
+      <c r="D24" s="13">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="4">
@@ -2655,11 +2623,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <f t="shared" si="6"/>
@@ -2679,7 +2647,7 @@
       </c>
       <c r="Q24" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="4">
         <f t="shared" si="11"/>
@@ -2687,7 +2655,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -2696,10 +2664,14 @@
       <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="6"/>
+      <c r="D25" s="13">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f>SUM(D25:E25)</f>
         <v>0</v>
       </c>
       <c r="G25" s="9"/>
@@ -2749,7 +2721,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -2758,11 +2730,15 @@
       <c r="C26" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="6"/>
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="4">
@@ -2779,11 +2755,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <f t="shared" si="6"/>
@@ -2803,7 +2779,7 @@
       </c>
       <c r="Q26" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="4">
         <f t="shared" si="11"/>
@@ -2811,7 +2787,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -2820,11 +2796,15 @@
       <c r="C27" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="6"/>
+      <c r="D27" s="13">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>3</v>
+      </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="4">
@@ -2841,7 +2821,7 @@
       </c>
       <c r="K27">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <f t="shared" si="5"/>
@@ -2853,7 +2833,7 @@
       </c>
       <c r="N27">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27">
         <f t="shared" si="8"/>
@@ -2869,11 +2849,11 @@
       </c>
       <c r="R27" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -2882,11 +2862,15 @@
       <c r="C28" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="6"/>
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="4">
@@ -2903,11 +2887,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <f t="shared" si="6"/>
@@ -2927,7 +2911,7 @@
       </c>
       <c r="Q28" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="4">
         <f t="shared" si="11"/>
@@ -2935,7 +2919,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -2944,11 +2928,15 @@
       <c r="C29" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="6"/>
+      <c r="D29" s="13">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="4">
@@ -2965,11 +2953,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <f t="shared" si="6"/>
@@ -2989,7 +2977,7 @@
       </c>
       <c r="Q29" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="4">
         <f t="shared" si="11"/>
@@ -2997,7 +2985,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -3006,11 +2994,15 @@
       <c r="C30" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="6"/>
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>2</v>
+      </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="4">
@@ -3027,7 +3019,7 @@
       </c>
       <c r="K30">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <f t="shared" si="5"/>
@@ -3035,7 +3027,7 @@
       </c>
       <c r="M30">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <f t="shared" si="7"/>
@@ -3055,11 +3047,11 @@
       </c>
       <c r="R30" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -3068,8 +3060,12 @@
       <c r="C31" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="6"/>
+      <c r="D31" s="13">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
       <c r="F31">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3121,7 +3117,7 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -3130,11 +3126,15 @@
       <c r="C32" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="6"/>
+      <c r="D32" s="13">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="4">
@@ -3151,11 +3151,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32">
         <f t="shared" si="6"/>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="Q32" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="4">
         <f t="shared" si="11"/>
@@ -3183,7 +3183,7 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -3192,11 +3192,15 @@
       <c r="C33" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="6"/>
+      <c r="D33" s="13">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>4</v>
+      </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="4">
@@ -3213,7 +3217,7 @@
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <f t="shared" si="5"/>
@@ -3229,7 +3233,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33">
         <f t="shared" si="9"/>
@@ -3241,11 +3245,11 @@
       </c>
       <c r="R33" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -3254,11 +3258,15 @@
       <c r="C34" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="6"/>
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="4">
@@ -3275,11 +3283,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34">
         <f t="shared" si="6"/>
@@ -3299,7 +3307,7 @@
       </c>
       <c r="Q34" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="4">
         <f t="shared" si="11"/>
@@ -3307,7 +3315,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -3316,11 +3324,15 @@
       <c r="C35" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="6"/>
+      <c r="D35" s="13">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>4</v>
+      </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="4">
@@ -3337,7 +3349,7 @@
       </c>
       <c r="K35">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <f t="shared" si="5"/>
@@ -3353,7 +3365,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35">
         <f t="shared" si="9"/>
@@ -3365,11 +3377,11 @@
       </c>
       <c r="R35" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -3378,11 +3390,15 @@
       <c r="C36" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="6"/>
+      <c r="D36" s="13">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="4">
@@ -3399,11 +3415,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36">
         <f t="shared" si="6"/>
@@ -3423,7 +3439,7 @@
       </c>
       <c r="Q36" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="4">
         <f t="shared" si="11"/>
@@ -3431,7 +3447,7 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -3440,8 +3456,12 @@
       <c r="C37" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="6"/>
+      <c r="D37" s="13">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
       <c r="F37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3493,7 +3513,7 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -3502,11 +3522,15 @@
       <c r="C38" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="6"/>
+      <c r="D38" s="13">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>3</v>
+      </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="4">
@@ -3523,7 +3547,7 @@
       </c>
       <c r="K38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <f t="shared" si="5"/>
@@ -3535,7 +3559,7 @@
       </c>
       <c r="N38">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38">
         <f t="shared" si="8"/>
@@ -3551,11 +3575,11 @@
       </c>
       <c r="R38" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -3564,8 +3588,12 @@
       <c r="C39" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="6"/>
+      <c r="D39" s="13">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
       <c r="F39">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3617,7 +3645,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -3626,8 +3654,12 @@
       <c r="C40" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="6"/>
+      <c r="D40" s="13">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
       <c r="F40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3679,7 +3711,7 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -3688,11 +3720,15 @@
       <c r="C41" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="6"/>
+      <c r="D41" s="13">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6">
+        <v>2</v>
+      </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="4">
@@ -3709,7 +3745,7 @@
       </c>
       <c r="K41">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <f t="shared" si="5"/>
@@ -3721,7 +3757,7 @@
       </c>
       <c r="N41">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41">
         <f t="shared" si="8"/>
@@ -3737,11 +3773,11 @@
       </c>
       <c r="R41" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -3750,11 +3786,15 @@
       <c r="C42" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="6"/>
+      <c r="D42" s="13">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
+        <v>3</v>
+      </c>
       <c r="F42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="4">
@@ -3771,7 +3811,7 @@
       </c>
       <c r="K42">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <f t="shared" si="5"/>
@@ -3783,7 +3823,7 @@
       </c>
       <c r="N42">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42">
         <f t="shared" si="8"/>
@@ -3799,11 +3839,11 @@
       </c>
       <c r="R42" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -3812,11 +3852,15 @@
       <c r="C43" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="6"/>
+      <c r="D43" s="13">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
       <c r="F43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="4">
@@ -3833,11 +3877,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43">
         <f t="shared" si="6"/>
@@ -3857,7 +3901,7 @@
       </c>
       <c r="Q43" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="4">
         <f t="shared" si="11"/>
@@ -3865,7 +3909,7 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -3874,8 +3918,12 @@
       <c r="C44" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="6"/>
+      <c r="D44" s="13">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
       <c r="F44">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3927,7 +3975,7 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -3936,11 +3984,15 @@
       <c r="C45" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="6"/>
+      <c r="D45" s="13">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>3</v>
+      </c>
       <c r="F45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="4">
@@ -3957,7 +4009,7 @@
       </c>
       <c r="K45">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <f t="shared" si="5"/>
@@ -3969,7 +4021,7 @@
       </c>
       <c r="N45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45">
         <f t="shared" si="8"/>
@@ -3985,11 +4037,11 @@
       </c>
       <c r="R45" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -3998,8 +4050,12 @@
       <c r="C46" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="6"/>
+      <c r="D46" s="13">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
       <c r="F46">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4051,7 +4107,7 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -4060,8 +4116,12 @@
       <c r="C47" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="6"/>
+      <c r="D47" s="13">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
       <c r="F47">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4113,7 +4173,7 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -4122,11 +4182,15 @@
       <c r="C48" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="6"/>
+      <c r="D48" s="13">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
+        <v>2</v>
+      </c>
       <c r="F48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="4">
@@ -4143,7 +4207,7 @@
       </c>
       <c r="K48">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48">
         <f t="shared" si="5"/>
@@ -4151,7 +4215,7 @@
       </c>
       <c r="M48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48">
         <f t="shared" si="7"/>
@@ -4171,11 +4235,11 @@
       </c>
       <c r="R48" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B49" s="9" t="s">
@@ -4184,11 +4248,15 @@
       <c r="C49" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="6"/>
+      <c r="D49" s="13">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
+        <v>4</v>
+      </c>
       <c r="F49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="4">
@@ -4205,7 +4273,7 @@
       </c>
       <c r="K49">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49">
         <f t="shared" si="5"/>
@@ -4221,7 +4289,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49">
         <f t="shared" si="9"/>
@@ -4233,11 +4301,11 @@
       </c>
       <c r="R49" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -4246,8 +4314,12 @@
       <c r="C50" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="6"/>
+      <c r="D50" s="13">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
       <c r="F50">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4299,7 +4371,7 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="15" t="s">
         <v>71</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -4308,11 +4380,15 @@
       <c r="C51" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="6"/>
+      <c r="D51" s="13">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
+        <v>1</v>
+      </c>
       <c r="F51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="4">
@@ -4329,11 +4405,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51">
         <f t="shared" si="6"/>
@@ -4353,7 +4429,7 @@
       </c>
       <c r="Q51" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="4">
         <f t="shared" si="11"/>
@@ -4361,7 +4437,7 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="15" t="s">
         <v>72</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -4370,11 +4446,15 @@
       <c r="C52" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="6"/>
+      <c r="D52" s="13">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
+        <v>2</v>
+      </c>
       <c r="F52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="4">
@@ -4391,7 +4471,7 @@
       </c>
       <c r="K52">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <f t="shared" si="5"/>
@@ -4399,7 +4479,7 @@
       </c>
       <c r="M52">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52">
         <f t="shared" si="7"/>
@@ -4419,11 +4499,11 @@
       </c>
       <c r="R52" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -4432,8 +4512,12 @@
       <c r="C53" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="6"/>
+      <c r="D53" s="13">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
       <c r="F53">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4485,7 +4569,7 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -4494,11 +4578,15 @@
       <c r="C54" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="6"/>
+      <c r="D54" s="13">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>2</v>
+      </c>
       <c r="F54">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="4">
@@ -4515,7 +4603,7 @@
       </c>
       <c r="K54">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54">
         <f t="shared" si="5"/>
@@ -4523,7 +4611,7 @@
       </c>
       <c r="M54">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54">
         <f t="shared" si="7"/>
@@ -4543,11 +4631,11 @@
       </c>
       <c r="R54" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -4556,11 +4644,15 @@
       <c r="C55" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="6"/>
+      <c r="D55" s="10">
+        <v>1</v>
+      </c>
+      <c r="E55" s="6">
+        <v>1</v>
+      </c>
       <c r="F55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="4">
@@ -4577,7 +4669,7 @@
       </c>
       <c r="K55">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55">
         <f t="shared" si="5"/>
@@ -4585,7 +4677,7 @@
       </c>
       <c r="M55">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55">
         <f t="shared" si="7"/>
@@ -4605,11 +4697,11 @@
       </c>
       <c r="R55" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -4618,8 +4710,12 @@
       <c r="C56" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="6"/>
+      <c r="D56" s="13">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
       <c r="F56">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4671,7 +4767,7 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="15" t="s">
         <v>77</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -4680,8 +4776,12 @@
       <c r="C57" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="10"/>
-      <c r="E57" s="6"/>
+      <c r="D57" s="13">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
       <c r="F57">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4733,7 +4833,7 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -4742,8 +4842,12 @@
       <c r="C58" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="10"/>
-      <c r="E58" s="6"/>
+      <c r="D58" s="13">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
       <c r="F58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4795,7 +4899,7 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="15" t="s">
         <v>79</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -4804,8 +4908,12 @@
       <c r="C59" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="6"/>
+      <c r="D59" s="13">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
       <c r="F59">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4857,7 +4965,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B60" s="9" t="s">
@@ -4866,11 +4974,15 @@
       <c r="C60" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="6"/>
+      <c r="D60" s="10">
+        <v>1</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1</v>
+      </c>
       <c r="F60">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="4">
@@ -4887,7 +4999,7 @@
       </c>
       <c r="K60">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60">
         <f t="shared" si="5"/>
@@ -4895,7 +5007,7 @@
       </c>
       <c r="M60">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60">
         <f t="shared" si="7"/>
@@ -4915,11 +5027,11 @@
       </c>
       <c r="R60" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="15" t="s">
         <v>81</v>
       </c>
       <c r="B61" s="9" t="s">
@@ -4928,8 +5040,12 @@
       <c r="C61" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="6"/>
+      <c r="D61" s="13">
+        <v>0</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
       <c r="F61">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4981,7 +5097,7 @@
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B62" s="9" t="s">
@@ -4990,8 +5106,12 @@
       <c r="C62" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="6"/>
+      <c r="D62" s="13">
+        <v>0</v>
+      </c>
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
       <c r="F62">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5043,7 +5163,7 @@
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="15" t="s">
         <v>83</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -5052,11 +5172,15 @@
       <c r="C63" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="6"/>
+      <c r="D63" s="13">
+        <v>0</v>
+      </c>
+      <c r="E63" s="6">
+        <v>1</v>
+      </c>
       <c r="F63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="4">
@@ -5073,11 +5197,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <f t="shared" si="6"/>
@@ -5097,7 +5221,7 @@
       </c>
       <c r="Q63" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="4">
         <f t="shared" si="11"/>
@@ -5105,7 +5229,7 @@
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B64" s="9" t="s">
@@ -5114,11 +5238,15 @@
       <c r="C64" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="10"/>
-      <c r="E64" s="6"/>
+      <c r="D64" s="13">
+        <v>0</v>
+      </c>
+      <c r="E64" s="6">
+        <v>3</v>
+      </c>
       <c r="F64">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="4">
@@ -5135,7 +5263,7 @@
       </c>
       <c r="K64">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64">
         <f t="shared" si="5"/>
@@ -5147,7 +5275,7 @@
       </c>
       <c r="N64">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64">
         <f t="shared" si="8"/>
@@ -5163,11 +5291,11 @@
       </c>
       <c r="R64" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B65" s="9" t="s">
@@ -5176,8 +5304,12 @@
       <c r="C65" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="6"/>
+      <c r="D65" s="13">
+        <v>0</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0</v>
+      </c>
       <c r="F65">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5229,7 +5361,7 @@
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="9" t="s">
@@ -5238,11 +5370,15 @@
       <c r="C66" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="10"/>
-      <c r="E66" s="6"/>
+      <c r="D66" s="13">
+        <v>0</v>
+      </c>
+      <c r="E66" s="6">
+        <v>2</v>
+      </c>
       <c r="F66">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="4">
@@ -5259,7 +5395,7 @@
       </c>
       <c r="K66">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66">
         <f t="shared" si="5"/>
@@ -5267,7 +5403,7 @@
       </c>
       <c r="M66">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66">
         <f t="shared" si="7"/>
@@ -5287,11 +5423,11 @@
       </c>
       <c r="R66" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B67" s="9" t="s">
@@ -5300,11 +5436,15 @@
       <c r="C67" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="10"/>
-      <c r="E67" s="6"/>
+      <c r="D67" s="13">
+        <v>0</v>
+      </c>
+      <c r="E67" s="6">
+        <v>1</v>
+      </c>
       <c r="F67">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="4">
@@ -5321,11 +5461,11 @@
       </c>
       <c r="K67">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67">
         <f t="shared" si="6"/>
@@ -5345,7 +5485,7 @@
       </c>
       <c r="Q67" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R67" s="4">
         <f t="shared" si="11"/>
@@ -5353,7 +5493,7 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -5362,8 +5502,12 @@
       <c r="C68" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="10"/>
-      <c r="E68" s="6"/>
+      <c r="D68" s="13">
+        <v>0</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0</v>
+      </c>
       <c r="F68">
         <f t="shared" ref="F68:F131" si="12">SUM(D68:E68)</f>
         <v>0</v>
@@ -5415,7 +5559,7 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B69" s="9" t="s">
@@ -5424,8 +5568,12 @@
       <c r="C69" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="10"/>
-      <c r="E69" s="6"/>
+      <c r="D69" s="13">
+        <v>0</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
       <c r="F69">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5477,7 +5625,7 @@
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B70" s="9" t="s">
@@ -5486,8 +5634,12 @@
       <c r="C70" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="10"/>
-      <c r="E70" s="6"/>
+      <c r="D70" s="13">
+        <v>0</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
       <c r="F70">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5539,7 +5691,7 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="15" t="s">
         <v>91</v>
       </c>
       <c r="B71" s="9" t="s">
@@ -5548,11 +5700,15 @@
       <c r="C71" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="10"/>
-      <c r="E71" s="6"/>
+      <c r="D71" s="13">
+        <v>0</v>
+      </c>
+      <c r="E71" s="6">
+        <v>3</v>
+      </c>
       <c r="F71">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="4">
@@ -5569,7 +5725,7 @@
       </c>
       <c r="K71">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71">
         <f t="shared" si="17"/>
@@ -5581,7 +5737,7 @@
       </c>
       <c r="N71">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71">
         <f t="shared" si="20"/>
@@ -5597,11 +5753,11 @@
       </c>
       <c r="R71" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B72" s="9" t="s">
@@ -5610,11 +5766,15 @@
       <c r="C72" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="10"/>
-      <c r="E72" s="6"/>
+      <c r="D72" s="10">
+        <v>1</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1</v>
+      </c>
       <c r="F72">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="4">
@@ -5631,7 +5791,7 @@
       </c>
       <c r="K72">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72">
         <f t="shared" si="17"/>
@@ -5639,7 +5799,7 @@
       </c>
       <c r="M72">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72">
         <f t="shared" si="19"/>
@@ -5659,11 +5819,11 @@
       </c>
       <c r="R72" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="15" t="s">
         <v>93</v>
       </c>
       <c r="B73" s="9" t="s">
@@ -5672,8 +5832,12 @@
       <c r="C73" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="10"/>
-      <c r="E73" s="6"/>
+      <c r="D73" s="13">
+        <v>0</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
       <c r="F73">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5725,7 +5889,7 @@
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B74" s="9" t="s">
@@ -5734,11 +5898,15 @@
       <c r="C74" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="10"/>
-      <c r="E74" s="6"/>
+      <c r="D74" s="13">
+        <v>0</v>
+      </c>
+      <c r="E74" s="6">
+        <v>1</v>
+      </c>
       <c r="F74">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="4">
@@ -5755,11 +5923,11 @@
       </c>
       <c r="K74">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74">
         <f t="shared" si="18"/>
@@ -5779,7 +5947,7 @@
       </c>
       <c r="Q74" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="4">
         <f t="shared" si="23"/>
@@ -5787,7 +5955,7 @@
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A75" s="17" t="s">
+      <c r="A75" s="15" t="s">
         <v>95</v>
       </c>
       <c r="B75" s="9" t="s">
@@ -5796,11 +5964,15 @@
       <c r="C75" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="10"/>
-      <c r="E75" s="6"/>
+      <c r="D75" s="13">
+        <v>0</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1</v>
+      </c>
       <c r="F75">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="4">
@@ -5817,11 +5989,11 @@
       </c>
       <c r="K75">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75">
         <f t="shared" si="18"/>
@@ -5841,7 +6013,7 @@
       </c>
       <c r="Q75" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75" s="4">
         <f t="shared" si="23"/>
@@ -5849,7 +6021,7 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="15" t="s">
         <v>96</v>
       </c>
       <c r="B76" s="9" t="s">
@@ -5858,11 +6030,15 @@
       <c r="C76" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="10"/>
-      <c r="E76" s="6"/>
+      <c r="D76" s="13">
+        <v>0</v>
+      </c>
+      <c r="E76" s="6">
+        <v>2</v>
+      </c>
       <c r="F76">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="4">
@@ -5879,7 +6055,7 @@
       </c>
       <c r="K76">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76">
         <f t="shared" si="17"/>
@@ -5887,7 +6063,7 @@
       </c>
       <c r="M76">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76">
         <f t="shared" si="19"/>
@@ -5907,11 +6083,11 @@
       </c>
       <c r="R76" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -5920,11 +6096,15 @@
       <c r="C77" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="10"/>
-      <c r="E77" s="6"/>
+      <c r="D77" s="13">
+        <v>0</v>
+      </c>
+      <c r="E77" s="6">
+        <v>3</v>
+      </c>
       <c r="F77">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="4">
@@ -5941,7 +6121,7 @@
       </c>
       <c r="K77">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77">
         <f t="shared" si="17"/>
@@ -5953,7 +6133,7 @@
       </c>
       <c r="N77">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O77">
         <f t="shared" si="20"/>
@@ -5969,11 +6149,11 @@
       </c>
       <c r="R77" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="15" t="s">
         <v>98</v>
       </c>
       <c r="B78" s="9" t="s">
@@ -5982,11 +6162,15 @@
       <c r="C78" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="10"/>
-      <c r="E78" s="6"/>
+      <c r="D78" s="13">
+        <v>0</v>
+      </c>
+      <c r="E78" s="6">
+        <v>1</v>
+      </c>
       <c r="F78">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="4">
@@ -6003,11 +6187,11 @@
       </c>
       <c r="K78">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78">
         <f t="shared" si="18"/>
@@ -6027,7 +6211,7 @@
       </c>
       <c r="Q78" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78" s="4">
         <f t="shared" si="23"/>
@@ -6035,7 +6219,7 @@
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="15" t="s">
         <v>99</v>
       </c>
       <c r="B79" s="9" t="s">
@@ -6044,11 +6228,15 @@
       <c r="C79" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="10"/>
-      <c r="E79" s="6"/>
+      <c r="D79" s="13">
+        <v>0</v>
+      </c>
+      <c r="E79" s="6">
+        <v>1</v>
+      </c>
       <c r="F79">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="4">
@@ -6065,11 +6253,11 @@
       </c>
       <c r="K79">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79">
         <f t="shared" si="18"/>
@@ -6089,7 +6277,7 @@
       </c>
       <c r="Q79" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R79" s="4">
         <f t="shared" si="23"/>
@@ -6097,7 +6285,7 @@
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="15" t="s">
         <v>100</v>
       </c>
       <c r="B80" s="9" t="s">
@@ -6106,11 +6294,15 @@
       <c r="C80" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="10"/>
-      <c r="E80" s="6"/>
+      <c r="D80" s="13">
+        <v>0</v>
+      </c>
+      <c r="E80" s="6">
+        <v>3</v>
+      </c>
       <c r="F80">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="4">
@@ -6127,7 +6319,7 @@
       </c>
       <c r="K80">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80">
         <f t="shared" si="17"/>
@@ -6139,7 +6331,7 @@
       </c>
       <c r="N80">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O80">
         <f t="shared" si="20"/>
@@ -6155,11 +6347,11 @@
       </c>
       <c r="R80" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A81" s="17" t="s">
+      <c r="A81" s="15" t="s">
         <v>101</v>
       </c>
       <c r="B81" s="9" t="s">
@@ -6168,11 +6360,15 @@
       <c r="C81" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="10"/>
-      <c r="E81" s="6"/>
+      <c r="D81" s="13">
+        <v>0</v>
+      </c>
+      <c r="E81" s="6">
+        <v>1</v>
+      </c>
       <c r="F81">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="4">
@@ -6189,11 +6385,11 @@
       </c>
       <c r="K81">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81">
         <f t="shared" si="18"/>
@@ -6213,7 +6409,7 @@
       </c>
       <c r="Q81" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81" s="4">
         <f t="shared" si="23"/>
@@ -6221,7 +6417,7 @@
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A82" s="17" t="s">
+      <c r="A82" s="15" t="s">
         <v>102</v>
       </c>
       <c r="B82" s="9" t="s">
@@ -6230,8 +6426,12 @@
       <c r="C82" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="10"/>
-      <c r="E82" s="6"/>
+      <c r="D82" s="13">
+        <v>0</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0</v>
+      </c>
       <c r="F82">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6283,7 +6483,7 @@
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A83" s="17" t="s">
+      <c r="A83" s="15" t="s">
         <v>103</v>
       </c>
       <c r="B83" s="9" t="s">
@@ -6292,8 +6492,12 @@
       <c r="C83" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="10"/>
-      <c r="E83" s="6"/>
+      <c r="D83" s="13">
+        <v>0</v>
+      </c>
+      <c r="E83" s="6">
+        <v>0</v>
+      </c>
       <c r="F83">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6345,7 +6549,7 @@
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A84" s="17" t="s">
+      <c r="A84" s="15" t="s">
         <v>104</v>
       </c>
       <c r="B84" s="9" t="s">
@@ -6354,8 +6558,12 @@
       <c r="C84" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="10"/>
-      <c r="E84" s="6"/>
+      <c r="D84" s="13">
+        <v>0</v>
+      </c>
+      <c r="E84" s="6">
+        <v>0</v>
+      </c>
       <c r="F84">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6407,7 +6615,7 @@
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A85" s="17" t="s">
+      <c r="A85" s="15" t="s">
         <v>105</v>
       </c>
       <c r="B85" s="9" t="s">
@@ -6416,11 +6624,15 @@
       <c r="C85" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="10"/>
-      <c r="E85" s="6"/>
+      <c r="D85" s="10">
+        <v>2</v>
+      </c>
+      <c r="E85" s="6">
+        <v>0</v>
+      </c>
       <c r="F85">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="4">
@@ -6437,7 +6649,7 @@
       </c>
       <c r="K85">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85">
         <f t="shared" si="17"/>
@@ -6445,7 +6657,7 @@
       </c>
       <c r="M85">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85">
         <f t="shared" si="19"/>
@@ -6465,29 +6677,33 @@
       </c>
       <c r="R85" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A86" s="17" t="s">
+      <c r="A86" s="15" t="s">
         <v>106</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="10"/>
-      <c r="E86" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="D86" s="10">
+        <v>1</v>
+      </c>
+      <c r="E86" s="6">
+        <v>1</v>
+      </c>
       <c r="F86">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="4">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" s="4">
         <f t="shared" si="14"/>
@@ -6495,11 +6711,11 @@
       </c>
       <c r="J86" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86">
         <f t="shared" si="17"/>
@@ -6507,7 +6723,7 @@
       </c>
       <c r="M86">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86">
         <f t="shared" si="19"/>
@@ -6527,11 +6743,11 @@
       </c>
       <c r="R86" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="15" t="s">
         <v>107</v>
       </c>
       <c r="B87" s="9" t="s">
@@ -6540,8 +6756,12 @@
       <c r="C87" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="10"/>
-      <c r="E87" s="6"/>
+      <c r="D87" s="13">
+        <v>0</v>
+      </c>
+      <c r="E87" s="6">
+        <v>0</v>
+      </c>
       <c r="F87">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6593,7 +6813,7 @@
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A88" s="17" t="s">
+      <c r="A88" s="15" t="s">
         <v>108</v>
       </c>
       <c r="B88" s="9" t="s">
@@ -6602,8 +6822,12 @@
       <c r="C88" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="10"/>
-      <c r="E88" s="6"/>
+      <c r="D88" s="13">
+        <v>0</v>
+      </c>
+      <c r="E88" s="6">
+        <v>0</v>
+      </c>
       <c r="F88">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6655,7 +6879,7 @@
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A89" s="17" t="s">
+      <c r="A89" s="15" t="s">
         <v>109</v>
       </c>
       <c r="B89" s="9" t="s">
@@ -6664,11 +6888,15 @@
       <c r="C89" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D89" s="10"/>
-      <c r="E89" s="6"/>
+      <c r="D89" s="13">
+        <v>0</v>
+      </c>
+      <c r="E89" s="6">
+        <v>1</v>
+      </c>
       <c r="F89">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="4">
@@ -6685,11 +6913,11 @@
       </c>
       <c r="K89">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89">
         <f t="shared" si="18"/>
@@ -6709,7 +6937,7 @@
       </c>
       <c r="Q89" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R89" s="4">
         <f t="shared" si="23"/>
@@ -6717,7 +6945,7 @@
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A90" s="17" t="s">
+      <c r="A90" s="15" t="s">
         <v>110</v>
       </c>
       <c r="B90" s="9" t="s">
@@ -6726,11 +6954,15 @@
       <c r="C90" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="10"/>
-      <c r="E90" s="6"/>
+      <c r="D90" s="13">
+        <v>0</v>
+      </c>
+      <c r="E90" s="6">
+        <v>2</v>
+      </c>
       <c r="F90">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="4">
@@ -6747,7 +6979,7 @@
       </c>
       <c r="K90">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90">
         <f t="shared" si="17"/>
@@ -6755,7 +6987,7 @@
       </c>
       <c r="M90">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90">
         <f t="shared" si="19"/>
@@ -6775,11 +7007,11 @@
       </c>
       <c r="R90" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A91" s="17" t="s">
+      <c r="A91" s="15" t="s">
         <v>111</v>
       </c>
       <c r="B91" s="9" t="s">
@@ -6788,11 +7020,15 @@
       <c r="C91" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D91" s="10"/>
-      <c r="E91" s="6"/>
+      <c r="D91" s="10">
+        <v>1</v>
+      </c>
+      <c r="E91" s="6">
+        <v>0</v>
+      </c>
       <c r="F91">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="4">
@@ -6809,11 +7045,11 @@
       </c>
       <c r="K91">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91">
         <f t="shared" si="18"/>
@@ -6833,7 +7069,7 @@
       </c>
       <c r="Q91" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R91" s="4">
         <f t="shared" si="23"/>
@@ -6841,7 +7077,7 @@
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A92" s="17" t="s">
+      <c r="A92" s="15" t="s">
         <v>112</v>
       </c>
       <c r="B92" s="9" t="s">
@@ -6850,11 +7086,15 @@
       <c r="C92" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D92" s="10"/>
-      <c r="E92" s="6"/>
+      <c r="D92" s="13">
+        <v>0</v>
+      </c>
+      <c r="E92" s="6">
+        <v>1</v>
+      </c>
       <c r="F92">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="4">
@@ -6871,11 +7111,11 @@
       </c>
       <c r="K92">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92">
         <f t="shared" si="18"/>
@@ -6895,7 +7135,7 @@
       </c>
       <c r="Q92" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R92" s="4">
         <f t="shared" si="23"/>
@@ -6903,7 +7143,7 @@
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A93" s="17" t="s">
+      <c r="A93" s="15" t="s">
         <v>113</v>
       </c>
       <c r="B93" s="9" t="s">
@@ -6912,8 +7152,12 @@
       <c r="C93" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="10"/>
-      <c r="E93" s="6"/>
+      <c r="D93" s="13">
+        <v>0</v>
+      </c>
+      <c r="E93" s="6">
+        <v>0</v>
+      </c>
       <c r="F93">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6965,7 +7209,7 @@
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A94" s="17" t="s">
+      <c r="A94" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B94" s="9" t="s">
@@ -6974,11 +7218,15 @@
       <c r="C94" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="10"/>
-      <c r="E94" s="6"/>
+      <c r="D94" s="13">
+        <v>0</v>
+      </c>
+      <c r="E94" s="6">
+        <v>1</v>
+      </c>
       <c r="F94">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="4">
@@ -6995,11 +7243,11 @@
       </c>
       <c r="K94">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94">
         <f t="shared" si="18"/>
@@ -7019,7 +7267,7 @@
       </c>
       <c r="Q94" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R94" s="4">
         <f t="shared" si="23"/>
@@ -7027,7 +7275,7 @@
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A95" s="17" t="s">
+      <c r="A95" s="15" t="s">
         <v>115</v>
       </c>
       <c r="B95" s="9" t="s">
@@ -7036,11 +7284,15 @@
       <c r="C95" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D95" s="10"/>
-      <c r="E95" s="6"/>
+      <c r="D95" s="13">
+        <v>0</v>
+      </c>
+      <c r="E95" s="6">
+        <v>1</v>
+      </c>
       <c r="F95">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="4">
@@ -7057,11 +7309,11 @@
       </c>
       <c r="K95">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95">
         <f t="shared" si="18"/>
@@ -7081,7 +7333,7 @@
       </c>
       <c r="Q95" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R95" s="4">
         <f t="shared" si="23"/>
@@ -7089,7 +7341,7 @@
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A96" s="17" t="s">
+      <c r="A96" s="15" t="s">
         <v>116</v>
       </c>
       <c r="B96" s="9" t="s">
@@ -7098,11 +7350,15 @@
       <c r="C96" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D96" s="10"/>
-      <c r="E96" s="6"/>
+      <c r="D96" s="13">
+        <v>0</v>
+      </c>
+      <c r="E96" s="6">
+        <v>1</v>
+      </c>
       <c r="F96">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="4">
@@ -7119,11 +7375,11 @@
       </c>
       <c r="K96">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96">
         <f t="shared" si="18"/>
@@ -7143,7 +7399,7 @@
       </c>
       <c r="Q96" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R96" s="4">
         <f t="shared" si="23"/>
@@ -7151,7 +7407,7 @@
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A97" s="17" t="s">
+      <c r="A97" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B97" s="9" t="s">
@@ -7160,11 +7416,15 @@
       <c r="C97" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D97" s="10"/>
-      <c r="E97" s="6"/>
+      <c r="D97" s="13">
+        <v>0</v>
+      </c>
+      <c r="E97" s="6">
+        <v>3</v>
+      </c>
       <c r="F97">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="4">
@@ -7181,7 +7441,7 @@
       </c>
       <c r="K97">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97">
         <f t="shared" si="17"/>
@@ -7193,7 +7453,7 @@
       </c>
       <c r="N97">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O97">
         <f t="shared" si="20"/>
@@ -7209,11 +7469,11 @@
       </c>
       <c r="R97" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A98" s="17" t="s">
+      <c r="A98" s="15" t="s">
         <v>118</v>
       </c>
       <c r="B98" s="9" t="s">
@@ -7222,11 +7482,15 @@
       <c r="C98" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D98" s="10"/>
-      <c r="E98" s="6"/>
+      <c r="D98" s="13">
+        <v>0</v>
+      </c>
+      <c r="E98" s="6">
+        <v>1</v>
+      </c>
       <c r="F98">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="4">
@@ -7243,11 +7507,11 @@
       </c>
       <c r="K98">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98">
         <f t="shared" si="18"/>
@@ -7267,7 +7531,7 @@
       </c>
       <c r="Q98" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R98" s="4">
         <f t="shared" si="23"/>
@@ -7275,7 +7539,7 @@
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A99" s="17" t="s">
+      <c r="A99" s="15" t="s">
         <v>119</v>
       </c>
       <c r="B99" s="9" t="s">
@@ -7284,11 +7548,15 @@
       <c r="C99" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D99" s="10"/>
-      <c r="E99" s="6"/>
+      <c r="D99" s="13">
+        <v>0</v>
+      </c>
+      <c r="E99" s="6">
+        <v>2</v>
+      </c>
       <c r="F99">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="4">
@@ -7305,7 +7573,7 @@
       </c>
       <c r="K99">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99">
         <f t="shared" si="17"/>
@@ -7313,7 +7581,7 @@
       </c>
       <c r="M99">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99">
         <f t="shared" si="19"/>
@@ -7333,11 +7601,11 @@
       </c>
       <c r="R99" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A100" s="17" t="s">
+      <c r="A100" s="15" t="s">
         <v>120</v>
       </c>
       <c r="B100" s="9" t="s">
@@ -7346,8 +7614,12 @@
       <c r="C100" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="10"/>
-      <c r="E100" s="6"/>
+      <c r="D100" s="13">
+        <v>0</v>
+      </c>
+      <c r="E100" s="6">
+        <v>0</v>
+      </c>
       <c r="F100">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -7399,7 +7671,7 @@
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A101" s="17" t="s">
+      <c r="A101" s="15" t="s">
         <v>121</v>
       </c>
       <c r="B101" s="9" t="s">
@@ -7408,11 +7680,15 @@
       <c r="C101" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="10"/>
-      <c r="E101" s="6"/>
+      <c r="D101" s="13">
+        <v>0</v>
+      </c>
+      <c r="E101" s="6">
+        <v>2</v>
+      </c>
       <c r="F101">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="4">
@@ -7429,7 +7705,7 @@
       </c>
       <c r="K101">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101">
         <f t="shared" si="17"/>
@@ -7437,7 +7713,7 @@
       </c>
       <c r="M101">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N101">
         <f t="shared" si="19"/>
@@ -7457,11 +7733,11 @@
       </c>
       <c r="R101" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A102" s="17" t="s">
+      <c r="A102" s="15" t="s">
         <v>122</v>
       </c>
       <c r="B102" s="9" t="s">
@@ -7470,8 +7746,12 @@
       <c r="C102" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D102" s="10"/>
-      <c r="E102" s="6"/>
+      <c r="D102" s="13">
+        <v>0</v>
+      </c>
+      <c r="E102" s="6">
+        <v>0</v>
+      </c>
       <c r="F102">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -7523,7 +7803,7 @@
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A103" s="17" t="s">
+      <c r="A103" s="15" t="s">
         <v>123</v>
       </c>
       <c r="B103" s="9" t="s">
@@ -7532,8 +7812,12 @@
       <c r="C103" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="10"/>
-      <c r="E103" s="6"/>
+      <c r="D103" s="13">
+        <v>0</v>
+      </c>
+      <c r="E103" s="6">
+        <v>0</v>
+      </c>
       <c r="F103">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -7585,7 +7869,7 @@
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A104" s="17" t="s">
+      <c r="A104" s="15" t="s">
         <v>124</v>
       </c>
       <c r="B104" s="9" t="s">
@@ -7594,11 +7878,15 @@
       <c r="C104" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="10"/>
-      <c r="E104" s="6"/>
+      <c r="D104" s="13">
+        <v>0</v>
+      </c>
+      <c r="E104" s="6">
+        <v>1</v>
+      </c>
       <c r="F104">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" s="2"/>
       <c r="H104" s="4">
@@ -7615,11 +7903,11 @@
       </c>
       <c r="K104">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M104">
         <f t="shared" si="18"/>
@@ -7639,7 +7927,7 @@
       </c>
       <c r="Q104" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R104" s="4">
         <f t="shared" si="23"/>
@@ -7647,7 +7935,7 @@
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A105" s="17" t="s">
+      <c r="A105" s="15" t="s">
         <v>125</v>
       </c>
       <c r="B105" s="9" t="s">
@@ -7656,11 +7944,15 @@
       <c r="C105" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D105" s="13"/>
-      <c r="E105" s="6"/>
+      <c r="D105" s="13">
+        <v>0</v>
+      </c>
+      <c r="E105" s="6">
+        <v>2</v>
+      </c>
       <c r="F105">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G105" s="2"/>
       <c r="H105" s="4">
@@ -7677,7 +7969,7 @@
       </c>
       <c r="K105">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105">
         <f t="shared" si="17"/>
@@ -7685,7 +7977,7 @@
       </c>
       <c r="M105">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N105">
         <f t="shared" si="19"/>
@@ -7705,11 +7997,11 @@
       </c>
       <c r="R105" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A106" s="17" t="s">
+      <c r="A106" s="15" t="s">
         <v>126</v>
       </c>
       <c r="B106" s="9" t="s">
@@ -7718,11 +8010,15 @@
       <c r="C106" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="13"/>
-      <c r="E106" s="6"/>
+      <c r="D106" s="13">
+        <v>0</v>
+      </c>
+      <c r="E106" s="6">
+        <v>2</v>
+      </c>
       <c r="F106">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="4">
@@ -7739,7 +8035,7 @@
       </c>
       <c r="K106">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106">
         <f t="shared" si="17"/>
@@ -7747,7 +8043,7 @@
       </c>
       <c r="M106">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N106">
         <f t="shared" si="19"/>
@@ -7767,11 +8063,11 @@
       </c>
       <c r="R106" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A107" s="17" t="s">
+      <c r="A107" s="15" t="s">
         <v>127</v>
       </c>
       <c r="B107" s="9" t="s">
@@ -7780,11 +8076,15 @@
       <c r="C107" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D107" s="13"/>
-      <c r="E107" s="6"/>
+      <c r="D107" s="13">
+        <v>0</v>
+      </c>
+      <c r="E107" s="6">
+        <v>3</v>
+      </c>
       <c r="F107">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G107" s="2"/>
       <c r="H107" s="4">
@@ -7801,7 +8101,7 @@
       </c>
       <c r="K107">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L107">
         <f t="shared" si="17"/>
@@ -7813,7 +8113,7 @@
       </c>
       <c r="N107">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O107">
         <f t="shared" si="20"/>
@@ -7829,11 +8129,11 @@
       </c>
       <c r="R107" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A108" s="17" t="s">
+      <c r="A108" s="15" t="s">
         <v>128</v>
       </c>
       <c r="B108" s="9" t="s">
@@ -7842,11 +8142,15 @@
       <c r="C108" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D108" s="13"/>
-      <c r="E108" s="6"/>
+      <c r="D108" s="13">
+        <v>1</v>
+      </c>
+      <c r="E108" s="6">
+        <v>2</v>
+      </c>
       <c r="F108">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G108" s="2"/>
       <c r="H108" s="4">
@@ -7863,7 +8167,7 @@
       </c>
       <c r="K108">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L108">
         <f t="shared" si="17"/>
@@ -7875,7 +8179,7 @@
       </c>
       <c r="N108">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O108">
         <f t="shared" si="20"/>
@@ -7891,11 +8195,11 @@
       </c>
       <c r="R108" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A109" s="17" t="s">
+      <c r="A109" s="15" t="s">
         <v>129</v>
       </c>
       <c r="B109" s="9" t="s">
@@ -7904,8 +8208,12 @@
       <c r="C109" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D109" s="13"/>
-      <c r="E109" s="6"/>
+      <c r="D109" s="13">
+        <v>0</v>
+      </c>
+      <c r="E109" s="6">
+        <v>0</v>
+      </c>
       <c r="F109">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -7957,7 +8265,7 @@
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A110" s="17" t="s">
+      <c r="A110" s="15" t="s">
         <v>130</v>
       </c>
       <c r="B110" s="9" t="s">
@@ -7966,8 +8274,12 @@
       <c r="C110" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D110" s="13"/>
-      <c r="E110" s="6"/>
+      <c r="D110" s="13">
+        <v>0</v>
+      </c>
+      <c r="E110" s="6">
+        <v>0</v>
+      </c>
       <c r="F110">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -8019,7 +8331,7 @@
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A111" s="17" t="s">
+      <c r="A111" s="15" t="s">
         <v>131</v>
       </c>
       <c r="B111" s="9" t="s">
@@ -8028,8 +8340,12 @@
       <c r="C111" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D111" s="13"/>
-      <c r="E111" s="6"/>
+      <c r="D111" s="13">
+        <v>0</v>
+      </c>
+      <c r="E111" s="6">
+        <v>0</v>
+      </c>
       <c r="F111">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -8081,7 +8397,7 @@
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A112" s="17" t="s">
+      <c r="A112" s="15" t="s">
         <v>132</v>
       </c>
       <c r="B112" s="9" t="s">
@@ -8090,11 +8406,15 @@
       <c r="C112" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D112" s="13"/>
-      <c r="E112" s="6"/>
+      <c r="D112" s="13">
+        <v>0</v>
+      </c>
+      <c r="E112" s="6">
+        <v>2</v>
+      </c>
       <c r="F112">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G112" s="2"/>
       <c r="H112" s="4">
@@ -8111,7 +8431,7 @@
       </c>
       <c r="K112">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L112">
         <f t="shared" si="17"/>
@@ -8119,7 +8439,7 @@
       </c>
       <c r="M112">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N112">
         <f t="shared" si="19"/>
@@ -8139,11 +8459,11 @@
       </c>
       <c r="R112" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A113" s="17" t="s">
+      <c r="A113" s="15" t="s">
         <v>133</v>
       </c>
       <c r="B113" s="9" t="s">
@@ -8152,11 +8472,15 @@
       <c r="C113" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D113" s="13"/>
-      <c r="E113" s="6"/>
+      <c r="D113" s="13">
+        <v>0</v>
+      </c>
+      <c r="E113" s="6">
+        <v>2</v>
+      </c>
       <c r="F113">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G113" s="2"/>
       <c r="H113" s="4">
@@ -8173,7 +8497,7 @@
       </c>
       <c r="K113">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L113">
         <f t="shared" si="17"/>
@@ -8181,7 +8505,7 @@
       </c>
       <c r="M113">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N113">
         <f t="shared" si="19"/>
@@ -8201,11 +8525,11 @@
       </c>
       <c r="R113" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A114" s="17" t="s">
+      <c r="A114" s="15" t="s">
         <v>134</v>
       </c>
       <c r="B114" s="9" t="s">
@@ -8214,8 +8538,12 @@
       <c r="C114" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D114" s="13"/>
-      <c r="E114" s="6"/>
+      <c r="D114" s="13">
+        <v>0</v>
+      </c>
+      <c r="E114" s="6">
+        <v>0</v>
+      </c>
       <c r="F114">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -8267,7 +8595,7 @@
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A115" s="17" t="s">
+      <c r="A115" s="15" t="s">
         <v>135</v>
       </c>
       <c r="B115" s="9" t="s">
@@ -8276,11 +8604,15 @@
       <c r="C115" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D115" s="13"/>
-      <c r="E115" s="6"/>
+      <c r="D115" s="13">
+        <v>0</v>
+      </c>
+      <c r="E115" s="6">
+        <v>1</v>
+      </c>
       <c r="F115">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="4">
@@ -8297,11 +8629,11 @@
       </c>
       <c r="K115">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115">
         <f t="shared" si="18"/>
@@ -8321,7 +8653,7 @@
       </c>
       <c r="Q115" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R115" s="4">
         <f t="shared" si="23"/>
@@ -8329,7 +8661,7 @@
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A116" s="17" t="s">
+      <c r="A116" s="15" t="s">
         <v>136</v>
       </c>
       <c r="B116" s="9" t="s">
@@ -8338,8 +8670,12 @@
       <c r="C116" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D116" s="13"/>
-      <c r="E116" s="6"/>
+      <c r="D116" s="13">
+        <v>0</v>
+      </c>
+      <c r="E116" s="6">
+        <v>0</v>
+      </c>
       <c r="F116">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -8391,7 +8727,7 @@
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A117" s="17" t="s">
+      <c r="A117" s="15" t="s">
         <v>137</v>
       </c>
       <c r="B117" s="9" t="s">
@@ -8400,11 +8736,15 @@
       <c r="C117" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D117" s="13"/>
-      <c r="E117" s="6"/>
+      <c r="D117" s="13">
+        <v>0</v>
+      </c>
+      <c r="E117" s="6">
+        <v>3</v>
+      </c>
       <c r="F117">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="4">
@@ -8421,7 +8761,7 @@
       </c>
       <c r="K117">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L117">
         <f t="shared" si="17"/>
@@ -8433,7 +8773,7 @@
       </c>
       <c r="N117">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O117">
         <f t="shared" si="20"/>
@@ -8449,11 +8789,11 @@
       </c>
       <c r="R117" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A118" s="17" t="s">
+      <c r="A118" s="15" t="s">
         <v>138</v>
       </c>
       <c r="B118" s="9" t="s">
@@ -8462,8 +8802,12 @@
       <c r="C118" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D118" s="13"/>
-      <c r="E118" s="6"/>
+      <c r="D118" s="13">
+        <v>0</v>
+      </c>
+      <c r="E118" s="6">
+        <v>0</v>
+      </c>
       <c r="F118">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -8515,7 +8859,7 @@
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A119" s="17" t="s">
+      <c r="A119" s="15" t="s">
         <v>139</v>
       </c>
       <c r="B119" s="9" t="s">
@@ -8524,8 +8868,12 @@
       <c r="C119" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D119" s="13"/>
-      <c r="E119" s="6"/>
+      <c r="D119" s="13">
+        <v>0</v>
+      </c>
+      <c r="E119" s="6">
+        <v>0</v>
+      </c>
       <c r="F119">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -8577,7 +8925,7 @@
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A120" s="17" t="s">
+      <c r="A120" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B120" s="9" t="s">
@@ -8586,11 +8934,15 @@
       <c r="C120" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D120" s="10"/>
-      <c r="E120" s="6"/>
+      <c r="D120" s="13">
+        <v>0</v>
+      </c>
+      <c r="E120" s="6">
+        <v>1</v>
+      </c>
       <c r="F120">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="4">
@@ -8607,11 +8959,11 @@
       </c>
       <c r="K120">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L120">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M120">
         <f t="shared" si="18"/>
@@ -8631,7 +8983,7 @@
       </c>
       <c r="Q120" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R120" s="4">
         <f t="shared" si="23"/>
@@ -8639,7 +8991,7 @@
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A121" s="17" t="s">
+      <c r="A121" s="15" t="s">
         <v>141</v>
       </c>
       <c r="B121" s="9" t="s">
@@ -8648,11 +9000,15 @@
       <c r="C121" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D121" s="13"/>
-      <c r="E121" s="6"/>
+      <c r="D121" s="13">
+        <v>0</v>
+      </c>
+      <c r="E121" s="6">
+        <v>2</v>
+      </c>
       <c r="F121">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="4">
@@ -8669,7 +9025,7 @@
       </c>
       <c r="K121">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L121">
         <f t="shared" si="17"/>
@@ -8677,7 +9033,7 @@
       </c>
       <c r="M121">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N121">
         <f t="shared" si="19"/>
@@ -8697,11 +9053,11 @@
       </c>
       <c r="R121" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A122" s="17" t="s">
+      <c r="A122" s="15" t="s">
         <v>142</v>
       </c>
       <c r="B122" s="9" t="s">
@@ -8710,11 +9066,15 @@
       <c r="C122" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D122" s="13"/>
-      <c r="E122" s="6"/>
+      <c r="D122" s="13">
+        <v>0</v>
+      </c>
+      <c r="E122" s="6">
+        <v>1</v>
+      </c>
       <c r="F122">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" s="2"/>
       <c r="H122" s="4">
@@ -8731,11 +9091,11 @@
       </c>
       <c r="K122">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L122">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M122">
         <f t="shared" si="18"/>
@@ -8755,7 +9115,7 @@
       </c>
       <c r="Q122" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R122" s="4">
         <f t="shared" si="23"/>
@@ -8763,7 +9123,7 @@
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A123" s="17" t="s">
+      <c r="A123" s="15" t="s">
         <v>143</v>
       </c>
       <c r="B123" s="9" t="s">
@@ -8772,8 +9132,12 @@
       <c r="C123" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D123" s="13"/>
-      <c r="E123" s="6"/>
+      <c r="D123" s="13">
+        <v>0</v>
+      </c>
+      <c r="E123" s="6">
+        <v>0</v>
+      </c>
       <c r="F123">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -8825,7 +9189,7 @@
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A124" s="17" t="s">
+      <c r="A124" s="15" t="s">
         <v>144</v>
       </c>
       <c r="B124" s="9" t="s">
@@ -8834,8 +9198,12 @@
       <c r="C124" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D124" s="13"/>
-      <c r="E124" s="6"/>
+      <c r="D124" s="13">
+        <v>0</v>
+      </c>
+      <c r="E124" s="6">
+        <v>0</v>
+      </c>
       <c r="F124">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -8887,7 +9255,7 @@
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A125" s="17" t="s">
+      <c r="A125" s="15" t="s">
         <v>145</v>
       </c>
       <c r="B125" s="9" t="s">
@@ -8896,11 +9264,15 @@
       <c r="C125" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D125" s="13"/>
-      <c r="E125" s="6"/>
+      <c r="D125" s="13">
+        <v>0</v>
+      </c>
+      <c r="E125" s="6">
+        <v>3</v>
+      </c>
       <c r="F125">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G125" s="2"/>
       <c r="H125" s="4">
@@ -8917,7 +9289,7 @@
       </c>
       <c r="K125">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L125">
         <f t="shared" si="17"/>
@@ -8929,7 +9301,7 @@
       </c>
       <c r="N125">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O125">
         <f t="shared" si="20"/>
@@ -8945,11 +9317,11 @@
       </c>
       <c r="R125" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A126" s="17" t="s">
+      <c r="A126" s="15" t="s">
         <v>146</v>
       </c>
       <c r="B126" s="9" t="s">
@@ -8958,11 +9330,15 @@
       <c r="C126" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D126" s="13"/>
-      <c r="E126" s="6"/>
+      <c r="D126" s="13">
+        <v>0</v>
+      </c>
+      <c r="E126" s="6">
+        <v>1</v>
+      </c>
       <c r="F126">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" s="2"/>
       <c r="H126" s="4">
@@ -8979,11 +9355,11 @@
       </c>
       <c r="K126">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L126">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M126">
         <f t="shared" si="18"/>
@@ -9003,7 +9379,7 @@
       </c>
       <c r="Q126" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R126" s="4">
         <f t="shared" si="23"/>
@@ -9011,7 +9387,7 @@
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A127" s="17" t="s">
+      <c r="A127" s="15" t="s">
         <v>147</v>
       </c>
       <c r="B127" s="9" t="s">
@@ -9020,8 +9396,12 @@
       <c r="C127" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D127" s="13"/>
-      <c r="E127" s="6"/>
+      <c r="D127" s="13">
+        <v>0</v>
+      </c>
+      <c r="E127" s="6">
+        <v>0</v>
+      </c>
       <c r="F127">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -9073,7 +9453,7 @@
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A128" s="17" t="s">
+      <c r="A128" s="15" t="s">
         <v>148</v>
       </c>
       <c r="B128" s="9" t="s">
@@ -9082,8 +9462,12 @@
       <c r="C128" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D128" s="13"/>
-      <c r="E128" s="6"/>
+      <c r="D128" s="13">
+        <v>0</v>
+      </c>
+      <c r="E128" s="6">
+        <v>0</v>
+      </c>
       <c r="F128">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -9135,7 +9519,7 @@
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A129" s="17" t="s">
+      <c r="A129" s="15" t="s">
         <v>149</v>
       </c>
       <c r="B129" s="9" t="s">
@@ -9144,11 +9528,15 @@
       <c r="C129" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D129" s="13"/>
-      <c r="E129" s="6"/>
+      <c r="D129" s="13">
+        <v>0</v>
+      </c>
+      <c r="E129" s="6">
+        <v>1</v>
+      </c>
       <c r="F129">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="9"/>
       <c r="H129" s="4">
@@ -9165,11 +9553,11 @@
       </c>
       <c r="K129">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L129">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M129">
         <f t="shared" si="18"/>
@@ -9189,7 +9577,7 @@
       </c>
       <c r="Q129" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R129" s="4">
         <f t="shared" si="23"/>
@@ -9197,7 +9585,7 @@
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A130" s="17" t="s">
+      <c r="A130" s="15" t="s">
         <v>150</v>
       </c>
       <c r="B130" s="9" t="s">
@@ -9206,8 +9594,12 @@
       <c r="C130" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D130" s="13"/>
-      <c r="E130" s="6"/>
+      <c r="D130" s="13">
+        <v>0</v>
+      </c>
+      <c r="E130" s="6">
+        <v>0</v>
+      </c>
       <c r="F130">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -9259,7 +9651,7 @@
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A131" s="17" t="s">
+      <c r="A131" s="15" t="s">
         <v>151</v>
       </c>
       <c r="B131" s="9" t="s">
@@ -9268,11 +9660,15 @@
       <c r="C131" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D131" s="13"/>
-      <c r="E131" s="6"/>
+      <c r="D131" s="13">
+        <v>0</v>
+      </c>
+      <c r="E131" s="6">
+        <v>2</v>
+      </c>
       <c r="F131">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G131" s="9"/>
       <c r="H131" s="4">
@@ -9289,7 +9685,7 @@
       </c>
       <c r="K131">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L131">
         <f t="shared" si="17"/>
@@ -9297,7 +9693,7 @@
       </c>
       <c r="M131">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N131">
         <f t="shared" si="19"/>
@@ -9317,11 +9713,11 @@
       </c>
       <c r="R131" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A132" s="17" t="s">
+      <c r="A132" s="15" t="s">
         <v>152</v>
       </c>
       <c r="B132" s="9" t="s">
@@ -9330,60 +9726,64 @@
       <c r="C132" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="13"/>
-      <c r="E132" s="6"/>
+      <c r="D132" s="13">
+        <v>0</v>
+      </c>
+      <c r="E132" s="6">
+        <v>0</v>
+      </c>
       <c r="F132">
-        <f t="shared" ref="F132:F195" si="24">SUM(D132:E132)</f>
+        <f t="shared" ref="F132:F146" si="24">SUM(D132:E132)</f>
         <v>0</v>
       </c>
       <c r="G132" s="2"/>
       <c r="H132" s="4">
-        <f t="shared" ref="H132:H195" si="25">IF(AND(B132="r", C132="s"), 1,0)</f>
+        <f t="shared" ref="H132:H146" si="25">IF(AND(B132="r", C132="s"), 1,0)</f>
         <v>1</v>
       </c>
       <c r="I132" s="4">
-        <f t="shared" ref="I132:I195" si="26">IF(AND(B132="s", C132="s"), 1,0)</f>
+        <f t="shared" ref="I132:I146" si="26">IF(AND(B132="s", C132="s"), 1,0)</f>
         <v>0</v>
       </c>
       <c r="J132" s="4">
-        <f t="shared" ref="J132:J195" si="27">IF(AND(B132="r", C132="r"), 1,0)</f>
+        <f t="shared" ref="J132:J146" si="27">IF(AND(B132="r", C132="r"), 1,0)</f>
         <v>0</v>
       </c>
       <c r="K132">
-        <f t="shared" ref="K132:K195" si="28">IF(F132=0, 1,0)</f>
+        <f t="shared" ref="K132:K146" si="28">IF(F132=0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="L132">
-        <f t="shared" ref="L132:L195" si="29">IF(F132=1, 1,0)</f>
+        <f t="shared" ref="L132:L146" si="29">IF(F132=1, 1,0)</f>
         <v>0</v>
       </c>
       <c r="M132">
-        <f t="shared" ref="M132:M195" si="30">IF(F132=2, 1, 0)</f>
+        <f t="shared" ref="M132:M146" si="30">IF(F132=2, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="N132">
-        <f t="shared" ref="N132:N195" si="31">IF(F132=3, 1, 0)</f>
+        <f t="shared" ref="N132:N146" si="31">IF(F132=3, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="O132">
-        <f t="shared" ref="O132:O195" si="32">IF(F132=4, 1,0)</f>
+        <f t="shared" ref="O132:O146" si="32">IF(F132=4, 1,0)</f>
         <v>0</v>
       </c>
       <c r="P132">
-        <f t="shared" ref="P132:P195" si="33">IF(F132&gt;=5, 1,0)</f>
+        <f t="shared" ref="P132:P146" si="33">IF(F132&gt;=5, 1,0)</f>
         <v>0</v>
       </c>
       <c r="Q132" s="4">
-        <f t="shared" ref="Q132:Q195" si="34">IF(F132=1,1,0)</f>
+        <f t="shared" ref="Q132:Q146" si="34">IF(F132=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="R132" s="4">
-        <f t="shared" ref="R132:R195" si="35">IF(F132&gt;1, 1,0)</f>
+        <f t="shared" ref="R132:R146" si="35">IF(F132&gt;1, 1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A133" s="17" t="s">
+      <c r="A133" s="15" t="s">
         <v>153</v>
       </c>
       <c r="B133" s="9" t="s">
@@ -9392,8 +9792,12 @@
       <c r="C133" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D133" s="13"/>
-      <c r="E133" s="6"/>
+      <c r="D133" s="13">
+        <v>0</v>
+      </c>
+      <c r="E133" s="6">
+        <v>0</v>
+      </c>
       <c r="F133">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -9445,7 +9849,7 @@
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A134" s="17" t="s">
+      <c r="A134" s="15" t="s">
         <v>154</v>
       </c>
       <c r="B134" s="9" t="s">
@@ -9454,8 +9858,12 @@
       <c r="C134" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D134" s="13"/>
-      <c r="E134" s="6"/>
+      <c r="D134" s="13">
+        <v>0</v>
+      </c>
+      <c r="E134" s="6">
+        <v>0</v>
+      </c>
       <c r="F134">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -9507,7 +9915,7 @@
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A135" s="17" t="s">
+      <c r="A135" s="15" t="s">
         <v>155</v>
       </c>
       <c r="B135" s="9" t="s">
@@ -9516,8 +9924,12 @@
       <c r="C135" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D135" s="13"/>
-      <c r="E135" s="6"/>
+      <c r="D135" s="13">
+        <v>0</v>
+      </c>
+      <c r="E135" s="6">
+        <v>0</v>
+      </c>
       <c r="F135">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -9569,7 +9981,7 @@
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A136" s="17" t="s">
+      <c r="A136" s="15" t="s">
         <v>156</v>
       </c>
       <c r="B136" s="9" t="s">
@@ -9578,8 +9990,12 @@
       <c r="C136" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D136" s="13"/>
-      <c r="E136" s="6"/>
+      <c r="D136" s="13">
+        <v>0</v>
+      </c>
+      <c r="E136" s="6">
+        <v>0</v>
+      </c>
       <c r="F136">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -9631,7 +10047,7 @@
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A137" s="17" t="s">
+      <c r="A137" s="15" t="s">
         <v>157</v>
       </c>
       <c r="B137" s="9" t="s">
@@ -9640,8 +10056,12 @@
       <c r="C137" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D137" s="13"/>
-      <c r="E137" s="6"/>
+      <c r="D137" s="13">
+        <v>0</v>
+      </c>
+      <c r="E137" s="6">
+        <v>0</v>
+      </c>
       <c r="F137">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -9693,7 +10113,7 @@
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A138" s="17" t="s">
+      <c r="A138" s="15" t="s">
         <v>158</v>
       </c>
       <c r="B138" s="9" t="s">
@@ -9702,8 +10122,12 @@
       <c r="C138" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D138" s="13"/>
-      <c r="E138" s="6"/>
+      <c r="D138" s="13">
+        <v>0</v>
+      </c>
+      <c r="E138" s="6">
+        <v>0</v>
+      </c>
       <c r="F138">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -9755,7 +10179,7 @@
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A139" s="17" t="s">
+      <c r="A139" s="15" t="s">
         <v>159</v>
       </c>
       <c r="B139" s="9" t="s">
@@ -9764,8 +10188,12 @@
       <c r="C139" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D139" s="13"/>
-      <c r="E139" s="6"/>
+      <c r="D139" s="13">
+        <v>0</v>
+      </c>
+      <c r="E139" s="6">
+        <v>0</v>
+      </c>
       <c r="F139">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -9817,7 +10245,7 @@
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A140" s="17" t="s">
+      <c r="A140" s="15" t="s">
         <v>160</v>
       </c>
       <c r="B140" s="9" t="s">
@@ -9826,11 +10254,15 @@
       <c r="C140" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D140" s="13"/>
-      <c r="E140" s="6"/>
+      <c r="D140" s="13">
+        <v>0</v>
+      </c>
+      <c r="E140" s="6">
+        <v>3</v>
+      </c>
       <c r="F140">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G140" s="2"/>
       <c r="H140" s="4">
@@ -9847,7 +10279,7 @@
       </c>
       <c r="K140">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L140">
         <f t="shared" si="29"/>
@@ -9859,7 +10291,7 @@
       </c>
       <c r="N140">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O140">
         <f t="shared" si="32"/>
@@ -9875,11 +10307,11 @@
       </c>
       <c r="R140" s="4">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A141" s="17" t="s">
+      <c r="A141" s="15" t="s">
         <v>161</v>
       </c>
       <c r="B141" s="9" t="s">
@@ -9888,8 +10320,12 @@
       <c r="C141" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D141" s="13"/>
-      <c r="E141" s="6"/>
+      <c r="D141" s="13">
+        <v>0</v>
+      </c>
+      <c r="E141" s="6">
+        <v>0</v>
+      </c>
       <c r="F141">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -9941,7 +10377,7 @@
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A142" s="17" t="s">
+      <c r="A142" s="15" t="s">
         <v>162</v>
       </c>
       <c r="B142" s="9" t="s">
@@ -9950,8 +10386,12 @@
       <c r="C142" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D142" s="13"/>
-      <c r="E142" s="6"/>
+      <c r="D142" s="13">
+        <v>0</v>
+      </c>
+      <c r="E142" s="6">
+        <v>0</v>
+      </c>
       <c r="F142">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -10003,7 +10443,7 @@
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A143" s="17" t="s">
+      <c r="A143" s="15" t="s">
         <v>163</v>
       </c>
       <c r="B143" s="9" t="s">
@@ -10012,8 +10452,12 @@
       <c r="C143" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D143" s="13"/>
-      <c r="E143" s="6"/>
+      <c r="D143" s="13">
+        <v>0</v>
+      </c>
+      <c r="E143" s="6">
+        <v>0</v>
+      </c>
       <c r="F143">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -10065,7 +10509,7 @@
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A144" s="17" t="s">
+      <c r="A144" s="15" t="s">
         <v>164</v>
       </c>
       <c r="B144" s="9" t="s">
@@ -10074,8 +10518,12 @@
       <c r="C144" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D144" s="13"/>
-      <c r="E144" s="6"/>
+      <c r="D144" s="13">
+        <v>0</v>
+      </c>
+      <c r="E144" s="6">
+        <v>0</v>
+      </c>
       <c r="F144">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -10127,7 +10575,7 @@
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A145" s="17" t="s">
+      <c r="A145" s="15" t="s">
         <v>165</v>
       </c>
       <c r="B145" s="9" t="s">
@@ -10136,11 +10584,15 @@
       <c r="C145" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D145" s="13"/>
-      <c r="E145" s="6"/>
+      <c r="D145" s="13">
+        <v>0</v>
+      </c>
+      <c r="E145" s="6">
+        <v>1</v>
+      </c>
       <c r="F145">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" s="2"/>
       <c r="H145" s="4">
@@ -10157,11 +10609,11 @@
       </c>
       <c r="K145">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L145">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M145">
         <f t="shared" si="30"/>
@@ -10181,7 +10633,7 @@
       </c>
       <c r="Q145" s="4">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R145" s="4">
         <f t="shared" si="35"/>
@@ -10189,7 +10641,7 @@
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A146" s="17" t="s">
+      <c r="A146" s="15" t="s">
         <v>166</v>
       </c>
       <c r="B146" s="9" t="s">
@@ -10198,11 +10650,15 @@
       <c r="C146" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D146" s="13"/>
-      <c r="E146" s="6"/>
+      <c r="D146" s="13">
+        <v>0</v>
+      </c>
+      <c r="E146" s="6">
+        <v>4</v>
+      </c>
       <c r="F146">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G146" s="2"/>
       <c r="H146" s="4">
@@ -10219,7 +10675,7 @@
       </c>
       <c r="K146">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L146">
         <f t="shared" si="29"/>
@@ -10235,7 +10691,7 @@
       </c>
       <c r="O146">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P146">
         <f t="shared" si="33"/>
@@ -10247,7 +10703,7 @@
       </c>
       <c r="R146" s="4">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.2">
@@ -10272,15 +10728,15 @@
       <c r="G148" s="4"/>
       <c r="H148" s="6">
         <f>AVERAGE(H3:H146)</f>
-        <v>0.65277777777777779</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I148" s="6">
         <f t="shared" ref="I148:J148" si="36">AVERAGE(I3:I146)</f>
-        <v>0.15277777777777779</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="J148" s="6">
         <f t="shared" si="36"/>
-        <v>0.19444444444444445</v>
+        <v>0.1875</v>
       </c>
       <c r="Q148" s="4"/>
       <c r="R148" s="4"/>
@@ -12141,15 +12597,15 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:B290">
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D150 C3:C170">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12162,9 +12618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R290"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" zoomScalePageLayoutView="116" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H148" sqref="H148:J148"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="116" zoomScaleNormal="116" zoomScalePageLayoutView="116" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3:R146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12177,28 +12633,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="H1" s="16" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -12254,7 +12710,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -12263,8 +12719,12 @@
       <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
       <c r="F3">
         <f>SUM(D3:E3)</f>
         <v>0</v>
@@ -12316,7 +12776,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -12325,8 +12785,12 @@
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
       <c r="F4">
         <f t="shared" ref="F4:F67" si="0">SUM(D4:E4)</f>
         <v>0</v>
@@ -12378,7 +12842,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -12387,8 +12851,12 @@
       <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12440,7 +12908,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -12449,8 +12917,12 @@
       <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
       <c r="F6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12502,7 +12974,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -12511,8 +12983,12 @@
       <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12564,7 +13040,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -12573,8 +13049,12 @@
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12626,7 +13106,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -12635,8 +13115,12 @@
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12688,7 +13172,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -12697,8 +13181,12 @@
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12750,7 +13238,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -12759,8 +13247,12 @@
       <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12812,7 +13304,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -12821,8 +13313,12 @@
       <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12874,7 +13370,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -12883,11 +13379,15 @@
       <c r="C13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2</v>
+      </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="4">
@@ -12904,7 +13404,7 @@
       </c>
       <c r="K13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <f t="shared" si="5"/>
@@ -12912,7 +13412,7 @@
       </c>
       <c r="M13">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <f t="shared" si="7"/>
@@ -12932,11 +13432,11 @@
       </c>
       <c r="R13" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -12945,8 +13445,12 @@
       <c r="C14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12998,7 +13502,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -13007,8 +13511,12 @@
       <c r="C15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13060,7 +13568,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -13069,11 +13577,15 @@
       <c r="C16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2</v>
+      </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="4">
@@ -13090,7 +13602,7 @@
       </c>
       <c r="K16">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <f t="shared" si="5"/>
@@ -13098,7 +13610,7 @@
       </c>
       <c r="M16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <f t="shared" si="7"/>
@@ -13118,11 +13630,11 @@
       </c>
       <c r="R16" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -13131,11 +13643,15 @@
       <c r="C17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2</v>
+      </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="4">
@@ -13152,7 +13668,7 @@
       </c>
       <c r="K17">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <f t="shared" si="5"/>
@@ -13160,7 +13676,7 @@
       </c>
       <c r="M17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <f t="shared" si="7"/>
@@ -13180,11 +13696,11 @@
       </c>
       <c r="R17" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -13193,8 +13709,12 @@
       <c r="C18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="6"/>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13246,7 +13766,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -13255,11 +13775,15 @@
       <c r="C19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="6"/>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="4">
@@ -13276,11 +13800,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <f t="shared" si="6"/>
@@ -13300,7 +13824,7 @@
       </c>
       <c r="Q19" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="4">
         <f t="shared" si="11"/>
@@ -13308,7 +13832,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -13317,8 +13841,12 @@
       <c r="C20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="6"/>
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13370,7 +13898,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -13379,8 +13907,12 @@
       <c r="C21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="6"/>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
       <c r="F21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13432,7 +13964,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -13441,8 +13973,12 @@
       <c r="C22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="6"/>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
       <c r="F22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13494,7 +14030,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -13503,11 +14039,15 @@
       <c r="C23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="6"/>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>5</v>
+      </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="4">
@@ -13524,7 +14064,7 @@
       </c>
       <c r="K23">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <f t="shared" si="5"/>
@@ -13544,7 +14084,7 @@
       </c>
       <c r="P23">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="4">
         <f t="shared" si="10"/>
@@ -13552,11 +14092,11 @@
       </c>
       <c r="R23" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -13565,8 +14105,12 @@
       <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="6"/>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
       <c r="F24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13618,7 +14162,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -13627,11 +14171,15 @@
       <c r="C25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="6"/>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="4">
@@ -13648,11 +14196,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <f t="shared" si="6"/>
@@ -13672,7 +14220,7 @@
       </c>
       <c r="Q25" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="4">
         <f t="shared" si="11"/>
@@ -13680,7 +14228,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -13689,11 +14237,15 @@
       <c r="C26" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="6"/>
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2</v>
+      </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="4">
@@ -13710,7 +14262,7 @@
       </c>
       <c r="K26">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <f t="shared" si="5"/>
@@ -13718,7 +14270,7 @@
       </c>
       <c r="M26">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
         <f t="shared" si="7"/>
@@ -13738,11 +14290,11 @@
       </c>
       <c r="R26" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -13751,8 +14303,12 @@
       <c r="C27" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="6"/>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
       <c r="F27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13804,7 +14360,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -13813,8 +14369,12 @@
       <c r="C28" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="6"/>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0</v>
+      </c>
       <c r="F28">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13866,7 +14426,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -13875,8 +14435,12 @@
       <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="6"/>
+      <c r="D29" s="10">
+        <v>0</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
       <c r="F29">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13928,7 +14492,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -13937,8 +14501,12 @@
       <c r="C30" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="6"/>
+      <c r="D30" s="10">
+        <v>0</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0</v>
+      </c>
       <c r="F30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13990,7 +14558,7 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -13999,8 +14567,12 @@
       <c r="C31" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="6"/>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
       <c r="F31">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14052,7 +14624,7 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -14061,8 +14633,12 @@
       <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="6"/>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
       <c r="F32">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14114,7 +14690,7 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -14123,8 +14699,12 @@
       <c r="C33" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="6"/>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
       <c r="F33">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14176,7 +14756,7 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -14185,8 +14765,12 @@
       <c r="C34" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="6"/>
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0</v>
+      </c>
       <c r="F34">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14238,7 +14822,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -14247,8 +14831,12 @@
       <c r="C35" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="6"/>
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0</v>
+      </c>
       <c r="F35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14300,7 +14888,7 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -14309,8 +14897,12 @@
       <c r="C36" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="6"/>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0</v>
+      </c>
       <c r="F36">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14362,7 +14954,7 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -14371,8 +14963,12 @@
       <c r="C37" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="6"/>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0</v>
+      </c>
       <c r="F37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14424,7 +15020,7 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -14433,11 +15029,15 @@
       <c r="C38" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="6"/>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>3</v>
+      </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="4">
@@ -14454,7 +15054,7 @@
       </c>
       <c r="K38">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <f t="shared" si="5"/>
@@ -14466,7 +15066,7 @@
       </c>
       <c r="N38">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38">
         <f t="shared" si="8"/>
@@ -14482,11 +15082,11 @@
       </c>
       <c r="R38" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -14495,8 +15095,12 @@
       <c r="C39" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="6"/>
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0</v>
+      </c>
       <c r="F39">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14548,7 +15152,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -14557,8 +15161,12 @@
       <c r="C40" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="6"/>
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0</v>
+      </c>
       <c r="F40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14610,7 +15218,7 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -14619,8 +15227,12 @@
       <c r="C41" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="6"/>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0</v>
+      </c>
       <c r="F41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14672,7 +15284,7 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -14681,8 +15293,12 @@
       <c r="C42" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="6"/>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0</v>
+      </c>
       <c r="F42">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14734,7 +15350,7 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -14743,8 +15359,12 @@
       <c r="C43" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="6"/>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
       <c r="F43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14796,7 +15416,7 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -14805,11 +15425,15 @@
       <c r="C44" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="6"/>
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1</v>
+      </c>
       <c r="F44">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="4">
@@ -14826,11 +15450,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44">
         <f t="shared" si="6"/>
@@ -14850,7 +15474,7 @@
       </c>
       <c r="Q44" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="4">
         <f t="shared" si="11"/>
@@ -14858,7 +15482,7 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -14867,8 +15491,12 @@
       <c r="C45" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="6"/>
+      <c r="D45" s="10">
+        <v>0</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0</v>
+      </c>
       <c r="F45">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14920,7 +15548,7 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -14929,8 +15557,12 @@
       <c r="C46" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="6"/>
+      <c r="D46" s="10">
+        <v>0</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0</v>
+      </c>
       <c r="F46">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14982,7 +15614,7 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -14991,8 +15623,12 @@
       <c r="C47" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="6"/>
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0</v>
+      </c>
       <c r="F47">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15044,7 +15680,7 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -15053,8 +15689,12 @@
       <c r="C48" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="6"/>
+      <c r="D48" s="10">
+        <v>0</v>
+      </c>
+      <c r="E48" s="10">
+        <v>0</v>
+      </c>
       <c r="F48">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15106,25 +15746,29 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
+        <v>2</v>
+      </c>
       <c r="F49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="4">
         <f t="shared" si="2"/>
@@ -15132,11 +15776,11 @@
       </c>
       <c r="J49" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49">
         <f t="shared" si="5"/>
@@ -15144,7 +15788,7 @@
       </c>
       <c r="M49">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49">
         <f t="shared" si="7"/>
@@ -15164,11 +15808,11 @@
       </c>
       <c r="R49" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -15177,8 +15821,12 @@
       <c r="C50" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="6"/>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
       <c r="F50">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15230,7 +15878,7 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="15" t="s">
         <v>71</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -15239,11 +15887,15 @@
       <c r="C51" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="6"/>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
+        <v>1</v>
+      </c>
       <c r="F51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="4">
@@ -15260,11 +15912,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51">
         <f t="shared" si="6"/>
@@ -15284,7 +15936,7 @@
       </c>
       <c r="Q51" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="4">
         <f t="shared" si="11"/>
@@ -15292,7 +15944,7 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="15" t="s">
         <v>72</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -15301,11 +15953,15 @@
       <c r="C52" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="6"/>
+      <c r="D52" s="10">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
+        <v>1</v>
+      </c>
       <c r="F52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="4">
@@ -15322,11 +15978,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52">
         <f t="shared" si="6"/>
@@ -15346,7 +16002,7 @@
       </c>
       <c r="Q52" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="4">
         <f t="shared" si="11"/>
@@ -15354,7 +16010,7 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -15363,11 +16019,15 @@
       <c r="C53" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="6"/>
+      <c r="D53" s="10">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6">
+        <v>1</v>
+      </c>
       <c r="F53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="4">
@@ -15384,11 +16044,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53">
         <f t="shared" si="6"/>
@@ -15408,7 +16068,7 @@
       </c>
       <c r="Q53" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="4">
         <f t="shared" si="11"/>
@@ -15416,25 +16076,29 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>1</v>
+      </c>
       <c r="F54">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="4">
         <f t="shared" si="2"/>
@@ -15442,15 +16106,15 @@
       </c>
       <c r="J54" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54">
         <f t="shared" si="6"/>
@@ -15470,7 +16134,7 @@
       </c>
       <c r="Q54" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="4">
         <f t="shared" si="11"/>
@@ -15478,7 +16142,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -15487,11 +16151,15 @@
       <c r="C55" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="6"/>
+      <c r="D55" s="10">
+        <v>1</v>
+      </c>
+      <c r="E55" s="6">
+        <v>2</v>
+      </c>
       <c r="F55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="4">
@@ -15508,7 +16176,7 @@
       </c>
       <c r="K55">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55">
         <f t="shared" si="5"/>
@@ -15520,7 +16188,7 @@
       </c>
       <c r="N55">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55">
         <f t="shared" si="8"/>
@@ -15536,11 +16204,11 @@
       </c>
       <c r="R55" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -15549,8 +16217,12 @@
       <c r="C56" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="6"/>
+      <c r="D56" s="13">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
       <c r="F56">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15602,7 +16274,7 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="15" t="s">
         <v>77</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -15611,11 +16283,15 @@
       <c r="C57" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="10"/>
-      <c r="E57" s="6"/>
+      <c r="D57" s="13">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1</v>
+      </c>
       <c r="F57">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="4">
@@ -15632,11 +16308,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57">
         <f t="shared" si="6"/>
@@ -15656,7 +16332,7 @@
       </c>
       <c r="Q57" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="4">
         <f t="shared" si="11"/>
@@ -15664,29 +16340,33 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="10"/>
-      <c r="E58" s="6"/>
+      <c r="D58" s="13">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1</v>
+      </c>
       <c r="F58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" s="4">
         <f t="shared" si="3"/>
@@ -15694,11 +16374,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58">
         <f t="shared" si="6"/>
@@ -15718,7 +16398,7 @@
       </c>
       <c r="Q58" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="4">
         <f t="shared" si="11"/>
@@ -15726,7 +16406,7 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="15" t="s">
         <v>79</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -15735,8 +16415,12 @@
       <c r="C59" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="6"/>
+      <c r="D59" s="13">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
       <c r="F59">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15788,25 +16472,29 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B60" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="6"/>
+      <c r="D60" s="13">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6">
+        <v>2</v>
+      </c>
       <c r="F60">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" s="4">
         <f t="shared" si="2"/>
@@ -15818,7 +16506,7 @@
       </c>
       <c r="K60">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60">
         <f t="shared" si="5"/>
@@ -15826,7 +16514,7 @@
       </c>
       <c r="M60">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60">
         <f t="shared" si="7"/>
@@ -15846,11 +16534,11 @@
       </c>
       <c r="R60" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="15" t="s">
         <v>81</v>
       </c>
       <c r="B61" s="9" t="s">
@@ -15859,8 +16547,12 @@
       <c r="C61" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="6"/>
+      <c r="D61" s="13">
+        <v>0</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
       <c r="F61">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15912,17 +16604,21 @@
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="D62" s="13">
+        <v>0</v>
+      </c>
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
       <c r="F62">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15930,7 +16626,7 @@
       <c r="G62" s="2"/>
       <c r="H62" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="4">
         <f t="shared" si="2"/>
@@ -15938,7 +16634,7 @@
       </c>
       <c r="J62" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62">
         <f t="shared" si="4"/>
@@ -15974,7 +16670,7 @@
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="15" t="s">
         <v>83</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -15983,11 +16679,15 @@
       <c r="C63" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="6"/>
+      <c r="D63" s="13">
+        <v>0</v>
+      </c>
+      <c r="E63" s="6">
+        <v>1</v>
+      </c>
       <c r="F63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="4">
@@ -16004,11 +16704,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <f t="shared" si="6"/>
@@ -16028,7 +16728,7 @@
       </c>
       <c r="Q63" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="4">
         <f t="shared" si="11"/>
@@ -16036,7 +16736,7 @@
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B64" s="9" t="s">
@@ -16045,11 +16745,15 @@
       <c r="C64" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="10"/>
-      <c r="E64" s="6"/>
+      <c r="D64" s="10">
+        <v>1</v>
+      </c>
+      <c r="E64" s="6">
+        <v>2</v>
+      </c>
       <c r="F64">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="4">
@@ -16066,7 +16770,7 @@
       </c>
       <c r="K64">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64">
         <f t="shared" si="5"/>
@@ -16078,7 +16782,7 @@
       </c>
       <c r="N64">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64">
         <f t="shared" si="8"/>
@@ -16094,11 +16798,11 @@
       </c>
       <c r="R64" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B65" s="9" t="s">
@@ -16107,8 +16811,12 @@
       <c r="C65" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="6"/>
+      <c r="D65" s="13">
+        <v>0</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0</v>
+      </c>
       <c r="F65">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16160,7 +16868,7 @@
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="9" t="s">
@@ -16169,11 +16877,15 @@
       <c r="C66" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="10"/>
-      <c r="E66" s="6"/>
+      <c r="D66" s="13">
+        <v>0</v>
+      </c>
+      <c r="E66" s="6">
+        <v>1</v>
+      </c>
       <c r="F66">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="4">
@@ -16190,11 +16902,11 @@
       </c>
       <c r="K66">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66">
         <f t="shared" si="6"/>
@@ -16214,7 +16926,7 @@
       </c>
       <c r="Q66" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66" s="4">
         <f t="shared" si="11"/>
@@ -16222,7 +16934,7 @@
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B67" s="9" t="s">
@@ -16231,11 +16943,15 @@
       <c r="C67" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="10"/>
-      <c r="E67" s="6"/>
+      <c r="D67" s="13">
+        <v>0</v>
+      </c>
+      <c r="E67" s="6">
+        <v>1</v>
+      </c>
       <c r="F67">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="4">
@@ -16252,11 +16968,11 @@
       </c>
       <c r="K67">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67">
         <f t="shared" si="6"/>
@@ -16276,7 +16992,7 @@
       </c>
       <c r="Q67" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R67" s="4">
         <f t="shared" si="11"/>
@@ -16284,7 +17000,7 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -16293,60 +17009,64 @@
       <c r="C68" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="10"/>
-      <c r="E68" s="6"/>
+      <c r="D68" s="13">
+        <v>0</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0</v>
+      </c>
       <c r="F68">
-        <f t="shared" ref="F68:F131" si="12">SUM(D68:E68)</f>
+        <f t="shared" ref="F68:F115" si="12">SUM(D68:E68)</f>
         <v>0</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="4">
-        <f t="shared" ref="H68:H131" si="13">IF(AND(B68="r", C68="s"), 1,0)</f>
+        <f t="shared" ref="H68:H115" si="13">IF(AND(B68="r", C68="s"), 1,0)</f>
         <v>0</v>
       </c>
       <c r="I68" s="4">
-        <f t="shared" ref="I68:I131" si="14">IF(AND(B68="s", C68="s"), 1,0)</f>
+        <f t="shared" ref="I68:I115" si="14">IF(AND(B68="s", C68="s"), 1,0)</f>
         <v>0</v>
       </c>
       <c r="J68" s="4">
-        <f t="shared" ref="J68:J131" si="15">IF(AND(B68="r", C68="r"), 1,0)</f>
+        <f t="shared" ref="J68:J115" si="15">IF(AND(B68="r", C68="r"), 1,0)</f>
         <v>1</v>
       </c>
       <c r="K68">
-        <f t="shared" ref="K68:K131" si="16">IF(F68=0, 1,0)</f>
+        <f t="shared" ref="K68:K115" si="16">IF(F68=0, 1,0)</f>
         <v>1</v>
       </c>
       <c r="L68">
-        <f t="shared" ref="L68:L131" si="17">IF(F68=1, 1,0)</f>
+        <f t="shared" ref="L68:L115" si="17">IF(F68=1, 1,0)</f>
         <v>0</v>
       </c>
       <c r="M68">
-        <f t="shared" ref="M68:M131" si="18">IF(F68=2, 1, 0)</f>
+        <f t="shared" ref="M68:M115" si="18">IF(F68=2, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="N68">
-        <f t="shared" ref="N68:N131" si="19">IF(F68=3, 1, 0)</f>
+        <f t="shared" ref="N68:N115" si="19">IF(F68=3, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="O68">
-        <f t="shared" ref="O68:O131" si="20">IF(F68=4, 1,0)</f>
+        <f t="shared" ref="O68:O115" si="20">IF(F68=4, 1,0)</f>
         <v>0</v>
       </c>
       <c r="P68">
-        <f t="shared" ref="P68:P131" si="21">IF(F68&gt;=5, 1,0)</f>
+        <f t="shared" ref="P68:P115" si="21">IF(F68&gt;=5, 1,0)</f>
         <v>0</v>
       </c>
       <c r="Q68" s="4">
-        <f t="shared" ref="Q68:Q131" si="22">IF(F68=1,1,0)</f>
+        <f t="shared" ref="Q68:Q115" si="22">IF(F68=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="R68" s="4">
-        <f t="shared" ref="R68:R131" si="23">IF(F68&gt;1, 1,0)</f>
+        <f t="shared" ref="R68:R115" si="23">IF(F68&gt;1, 1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B69" s="9" t="s">
@@ -16355,11 +17075,15 @@
       <c r="C69" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="10"/>
-      <c r="E69" s="6"/>
+      <c r="D69" s="13">
+        <v>0</v>
+      </c>
+      <c r="E69" s="6">
+        <v>2</v>
+      </c>
       <c r="F69">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="4">
@@ -16376,7 +17100,7 @@
       </c>
       <c r="K69">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69">
         <f t="shared" si="17"/>
@@ -16384,7 +17108,7 @@
       </c>
       <c r="M69">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69">
         <f t="shared" si="19"/>
@@ -16404,11 +17128,11 @@
       </c>
       <c r="R69" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B70" s="9" t="s">
@@ -16417,11 +17141,15 @@
       <c r="C70" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="10"/>
-      <c r="E70" s="6"/>
+      <c r="D70" s="13">
+        <v>0</v>
+      </c>
+      <c r="E70" s="6">
+        <v>1</v>
+      </c>
       <c r="F70">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="4">
@@ -16438,11 +17166,11 @@
       </c>
       <c r="K70">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70">
         <f t="shared" si="18"/>
@@ -16462,7 +17190,7 @@
       </c>
       <c r="Q70" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70" s="4">
         <f t="shared" si="23"/>
@@ -16470,25 +17198,29 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="15" t="s">
         <v>91</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="10"/>
-      <c r="E71" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="D71" s="13">
+        <v>0</v>
+      </c>
+      <c r="E71" s="6">
+        <v>2</v>
+      </c>
       <c r="F71">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="4">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="4">
         <f t="shared" si="14"/>
@@ -16496,11 +17228,11 @@
       </c>
       <c r="J71" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71">
         <f t="shared" si="17"/>
@@ -16508,7 +17240,7 @@
       </c>
       <c r="M71">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71">
         <f t="shared" si="19"/>
@@ -16528,29 +17260,33 @@
       </c>
       <c r="R71" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="10"/>
-      <c r="E72" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="D72" s="13">
+        <v>0</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1</v>
+      </c>
       <c r="F72">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="4">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" s="4">
         <f t="shared" si="14"/>
@@ -16558,15 +17294,15 @@
       </c>
       <c r="J72" s="4">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72">
         <f t="shared" si="18"/>
@@ -16586,7 +17322,7 @@
       </c>
       <c r="Q72" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72" s="4">
         <f t="shared" si="23"/>
@@ -16594,7 +17330,7 @@
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="15" t="s">
         <v>93</v>
       </c>
       <c r="B73" s="9" t="s">
@@ -16603,11 +17339,15 @@
       <c r="C73" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="10"/>
-      <c r="E73" s="6"/>
+      <c r="D73" s="13">
+        <v>0</v>
+      </c>
+      <c r="E73" s="6">
+        <v>2</v>
+      </c>
       <c r="F73">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="4">
@@ -16624,7 +17364,7 @@
       </c>
       <c r="K73">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73">
         <f t="shared" si="17"/>
@@ -16632,7 +17372,7 @@
       </c>
       <c r="M73">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73">
         <f t="shared" si="19"/>
@@ -16652,11 +17392,11 @@
       </c>
       <c r="R73" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B74" s="9" t="s">
@@ -16665,8 +17405,12 @@
       <c r="C74" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="10"/>
-      <c r="E74" s="6"/>
+      <c r="D74" s="13">
+        <v>0</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0</v>
+      </c>
       <c r="F74">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -16718,7 +17462,7 @@
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A75" s="17" t="s">
+      <c r="A75" s="15" t="s">
         <v>95</v>
       </c>
       <c r="B75" s="9" t="s">
@@ -16772,7 +17516,7 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="15" t="s">
         <v>96</v>
       </c>
       <c r="B76" s="9" t="s">
@@ -16826,7 +17570,7 @@
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -16880,7 +17624,7 @@
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="15" t="s">
         <v>98</v>
       </c>
       <c r="B78" s="9" t="s">
@@ -16934,7 +17678,7 @@
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="15" t="s">
         <v>99</v>
       </c>
       <c r="B79" s="9" t="s">
@@ -16988,7 +17732,7 @@
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="15" t="s">
         <v>100</v>
       </c>
       <c r="B80" s="9" t="s">
@@ -17042,7 +17786,7 @@
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A81" s="17" t="s">
+      <c r="A81" s="15" t="s">
         <v>101</v>
       </c>
       <c r="B81" s="9" t="s">
@@ -17096,7 +17840,7 @@
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A82" s="17" t="s">
+      <c r="A82" s="15" t="s">
         <v>102</v>
       </c>
       <c r="B82" s="9" t="s">
@@ -17150,7 +17894,7 @@
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A83" s="17" t="s">
+      <c r="A83" s="15" t="s">
         <v>103</v>
       </c>
       <c r="B83" s="9" t="s">
@@ -17204,7 +17948,7 @@
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A84" s="17" t="s">
+      <c r="A84" s="15" t="s">
         <v>104</v>
       </c>
       <c r="B84" s="9" t="s">
@@ -17258,7 +18002,7 @@
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A85" s="17" t="s">
+      <c r="A85" s="15" t="s">
         <v>105</v>
       </c>
       <c r="B85" s="9" t="s">
@@ -17312,7 +18056,7 @@
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A86" s="17" t="s">
+      <c r="A86" s="15" t="s">
         <v>106</v>
       </c>
       <c r="B86" s="9" t="s">
@@ -17366,7 +18110,7 @@
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="15" t="s">
         <v>107</v>
       </c>
       <c r="B87" s="9" t="s">
@@ -17420,7 +18164,7 @@
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A88" s="17" t="s">
+      <c r="A88" s="15" t="s">
         <v>108</v>
       </c>
       <c r="B88" s="9" t="s">
@@ -17474,7 +18218,7 @@
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A89" s="17" t="s">
+      <c r="A89" s="15" t="s">
         <v>109</v>
       </c>
       <c r="B89" s="9" t="s">
@@ -17528,7 +18272,7 @@
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A90" s="17" t="s">
+      <c r="A90" s="15" t="s">
         <v>110</v>
       </c>
       <c r="B90" s="9" t="s">
@@ -17582,7 +18326,7 @@
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A91" s="17" t="s">
+      <c r="A91" s="15" t="s">
         <v>111</v>
       </c>
       <c r="B91" s="9" t="s">
@@ -17636,7 +18380,7 @@
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A92" s="17" t="s">
+      <c r="A92" s="15" t="s">
         <v>112</v>
       </c>
       <c r="B92" s="9" t="s">
@@ -17690,7 +18434,7 @@
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A93" s="17" t="s">
+      <c r="A93" s="15" t="s">
         <v>113</v>
       </c>
       <c r="B93" s="9" t="s">
@@ -17744,7 +18488,7 @@
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A94" s="17" t="s">
+      <c r="A94" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B94" s="9" t="s">
@@ -17798,7 +18542,7 @@
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A95" s="17" t="s">
+      <c r="A95" s="15" t="s">
         <v>115</v>
       </c>
       <c r="B95" s="9" t="s">
@@ -17852,7 +18596,7 @@
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A96" s="17" t="s">
+      <c r="A96" s="15" t="s">
         <v>116</v>
       </c>
       <c r="B96" s="9" t="s">
@@ -17906,7 +18650,7 @@
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A97" s="17" t="s">
+      <c r="A97" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B97" s="9" t="s">
@@ -17960,7 +18704,7 @@
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A98" s="17" t="s">
+      <c r="A98" s="15" t="s">
         <v>118</v>
       </c>
       <c r="B98" s="9" t="s">
@@ -18014,7 +18758,7 @@
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A99" s="17" t="s">
+      <c r="A99" s="15" t="s">
         <v>119</v>
       </c>
       <c r="B99" s="9" t="s">
@@ -18023,11 +18767,15 @@
       <c r="C99" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D99" s="10"/>
-      <c r="E99" s="6"/>
+      <c r="D99" s="13">
+        <v>0</v>
+      </c>
+      <c r="E99" s="6">
+        <v>1</v>
+      </c>
       <c r="F99">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="4">
@@ -18044,11 +18792,11 @@
       </c>
       <c r="K99">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99">
         <f t="shared" si="18"/>
@@ -18068,7 +18816,7 @@
       </c>
       <c r="Q99" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R99" s="4">
         <f t="shared" si="23"/>
@@ -18076,7 +18824,7 @@
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A100" s="17" t="s">
+      <c r="A100" s="15" t="s">
         <v>120</v>
       </c>
       <c r="B100" s="9" t="s">
@@ -18085,8 +18833,12 @@
       <c r="C100" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="10"/>
-      <c r="E100" s="6"/>
+      <c r="D100" s="13">
+        <v>0</v>
+      </c>
+      <c r="E100" s="6">
+        <v>0</v>
+      </c>
       <c r="F100">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -18138,7 +18890,7 @@
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A101" s="17" t="s">
+      <c r="A101" s="15" t="s">
         <v>121</v>
       </c>
       <c r="B101" s="9" t="s">
@@ -18147,11 +18899,15 @@
       <c r="C101" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="10"/>
-      <c r="E101" s="6"/>
+      <c r="D101" s="13">
+        <v>0</v>
+      </c>
+      <c r="E101" s="6">
+        <v>3</v>
+      </c>
       <c r="F101">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="4">
@@ -18168,7 +18924,7 @@
       </c>
       <c r="K101">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101">
         <f t="shared" si="17"/>
@@ -18180,7 +18936,7 @@
       </c>
       <c r="N101">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O101">
         <f t="shared" si="20"/>
@@ -18196,11 +18952,11 @@
       </c>
       <c r="R101" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A102" s="17" t="s">
+      <c r="A102" s="15" t="s">
         <v>122</v>
       </c>
       <c r="B102" s="9" t="s">
@@ -18209,8 +18965,12 @@
       <c r="C102" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="10"/>
-      <c r="E102" s="6"/>
+      <c r="D102" s="13">
+        <v>0</v>
+      </c>
+      <c r="E102" s="6">
+        <v>0</v>
+      </c>
       <c r="F102">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -18262,7 +19022,7 @@
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A103" s="17" t="s">
+      <c r="A103" s="15" t="s">
         <v>123</v>
       </c>
       <c r="B103" s="9" t="s">
@@ -18271,11 +19031,15 @@
       <c r="C103" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="10"/>
-      <c r="E103" s="6"/>
+      <c r="D103" s="13">
+        <v>0</v>
+      </c>
+      <c r="E103" s="6">
+        <v>2</v>
+      </c>
       <c r="F103">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="4">
@@ -18292,7 +19056,7 @@
       </c>
       <c r="K103">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103">
         <f t="shared" si="17"/>
@@ -18300,7 +19064,7 @@
       </c>
       <c r="M103">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N103">
         <f t="shared" si="19"/>
@@ -18320,11 +19084,11 @@
       </c>
       <c r="R103" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A104" s="17" t="s">
+      <c r="A104" s="15" t="s">
         <v>124</v>
       </c>
       <c r="B104" s="9" t="s">
@@ -18333,8 +19097,12 @@
       <c r="C104" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="10"/>
-      <c r="E104" s="6"/>
+      <c r="D104" s="13">
+        <v>0</v>
+      </c>
+      <c r="E104" s="6">
+        <v>0</v>
+      </c>
       <c r="F104">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -18386,17 +19154,21 @@
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A105" s="17" t="s">
+      <c r="A105" s="15" t="s">
         <v>125</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D105" s="13"/>
-      <c r="E105" s="6"/>
+      <c r="D105" s="13">
+        <v>0</v>
+      </c>
+      <c r="E105" s="6">
+        <v>0</v>
+      </c>
       <c r="F105">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -18404,11 +19176,11 @@
       <c r="G105" s="2"/>
       <c r="H105" s="4">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" s="4">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" s="4">
         <f t="shared" si="15"/>
@@ -18448,7 +19220,7 @@
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A106" s="17" t="s">
+      <c r="A106" s="15" t="s">
         <v>126</v>
       </c>
       <c r="B106" s="9" t="s">
@@ -18457,8 +19229,12 @@
       <c r="C106" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D106" s="13"/>
-      <c r="E106" s="6"/>
+      <c r="D106" s="13">
+        <v>0</v>
+      </c>
+      <c r="E106" s="6">
+        <v>0</v>
+      </c>
       <c r="F106">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -18510,7 +19286,7 @@
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A107" s="17" t="s">
+      <c r="A107" s="15" t="s">
         <v>127</v>
       </c>
       <c r="B107" s="9" t="s">
@@ -18519,8 +19295,12 @@
       <c r="C107" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D107" s="13"/>
-      <c r="E107" s="6"/>
+      <c r="D107" s="13">
+        <v>0</v>
+      </c>
+      <c r="E107" s="6">
+        <v>0</v>
+      </c>
       <c r="F107">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -18572,7 +19352,7 @@
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A108" s="17" t="s">
+      <c r="A108" s="15" t="s">
         <v>128</v>
       </c>
       <c r="B108" s="9" t="s">
@@ -18581,11 +19361,15 @@
       <c r="C108" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D108" s="13"/>
-      <c r="E108" s="6"/>
+      <c r="D108" s="13">
+        <v>0</v>
+      </c>
+      <c r="E108" s="6">
+        <v>1</v>
+      </c>
       <c r="F108">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" s="2"/>
       <c r="H108" s="4">
@@ -18602,11 +19386,11 @@
       </c>
       <c r="K108">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L108">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108">
         <f t="shared" si="18"/>
@@ -18626,7 +19410,7 @@
       </c>
       <c r="Q108" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R108" s="4">
         <f t="shared" si="23"/>
@@ -18634,7 +19418,7 @@
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A109" s="17" t="s">
+      <c r="A109" s="15" t="s">
         <v>129</v>
       </c>
       <c r="B109" s="9" t="s">
@@ -18643,11 +19427,15 @@
       <c r="C109" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D109" s="13"/>
-      <c r="E109" s="6"/>
+      <c r="D109" s="13">
+        <v>0</v>
+      </c>
+      <c r="E109" s="6">
+        <v>2</v>
+      </c>
       <c r="F109">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="4">
@@ -18664,7 +19452,7 @@
       </c>
       <c r="K109">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L109">
         <f t="shared" si="17"/>
@@ -18672,7 +19460,7 @@
       </c>
       <c r="M109">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N109">
         <f t="shared" si="19"/>
@@ -18692,11 +19480,11 @@
       </c>
       <c r="R109" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A110" s="17" t="s">
+      <c r="A110" s="15" t="s">
         <v>130</v>
       </c>
       <c r="B110" s="9" t="s">
@@ -18705,11 +19493,15 @@
       <c r="C110" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D110" s="13"/>
-      <c r="E110" s="6"/>
+      <c r="D110" s="13">
+        <v>0</v>
+      </c>
+      <c r="E110" s="6">
+        <v>1</v>
+      </c>
       <c r="F110">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" s="2"/>
       <c r="H110" s="4">
@@ -18726,11 +19518,11 @@
       </c>
       <c r="K110">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110">
         <f t="shared" si="18"/>
@@ -18750,7 +19542,7 @@
       </c>
       <c r="Q110" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R110" s="4">
         <f t="shared" si="23"/>
@@ -18758,7 +19550,7 @@
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A111" s="17" t="s">
+      <c r="A111" s="15" t="s">
         <v>131</v>
       </c>
       <c r="B111" s="9" t="s">
@@ -18767,11 +19559,15 @@
       <c r="C111" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D111" s="13"/>
-      <c r="E111" s="6"/>
+      <c r="D111" s="13">
+        <v>0</v>
+      </c>
+      <c r="E111" s="6">
+        <v>3</v>
+      </c>
       <c r="F111">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G111" s="2"/>
       <c r="H111" s="4">
@@ -18788,7 +19584,7 @@
       </c>
       <c r="K111">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111">
         <f t="shared" si="17"/>
@@ -18800,7 +19596,7 @@
       </c>
       <c r="N111">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O111">
         <f t="shared" si="20"/>
@@ -18816,11 +19612,11 @@
       </c>
       <c r="R111" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A112" s="17" t="s">
+      <c r="A112" s="15" t="s">
         <v>132</v>
       </c>
       <c r="B112" s="9" t="s">
@@ -18829,8 +19625,12 @@
       <c r="C112" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D112" s="13"/>
-      <c r="E112" s="6"/>
+      <c r="D112" s="13">
+        <v>0</v>
+      </c>
+      <c r="E112" s="6">
+        <v>0</v>
+      </c>
       <c r="F112">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -18882,7 +19682,7 @@
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A113" s="17" t="s">
+      <c r="A113" s="15" t="s">
         <v>133</v>
       </c>
       <c r="B113" s="9" t="s">
@@ -18891,8 +19691,12 @@
       <c r="C113" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D113" s="13"/>
-      <c r="E113" s="6"/>
+      <c r="D113" s="13">
+        <v>0</v>
+      </c>
+      <c r="E113" s="6">
+        <v>0</v>
+      </c>
       <c r="F113">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -18944,7 +19748,7 @@
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A114" s="17" t="s">
+      <c r="A114" s="15" t="s">
         <v>134</v>
       </c>
       <c r="B114" s="9" t="s">
@@ -18953,8 +19757,12 @@
       <c r="C114" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D114" s="13"/>
-      <c r="E114" s="6"/>
+      <c r="D114" s="13">
+        <v>0</v>
+      </c>
+      <c r="E114" s="6">
+        <v>0</v>
+      </c>
       <c r="F114">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -19006,7 +19814,7 @@
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A115" s="17" t="s">
+      <c r="A115" s="15" t="s">
         <v>135</v>
       </c>
       <c r="B115" s="9" t="s">
@@ -19015,11 +19823,15 @@
       <c r="C115" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D115" s="13"/>
-      <c r="E115" s="6"/>
+      <c r="D115" s="13">
+        <v>1</v>
+      </c>
+      <c r="E115" s="6">
+        <v>1</v>
+      </c>
       <c r="F115">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="4">
@@ -19036,7 +19848,7 @@
       </c>
       <c r="K115">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115">
         <f t="shared" si="17"/>
@@ -19044,7 +19856,7 @@
       </c>
       <c r="M115">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N115">
         <f t="shared" si="19"/>
@@ -19064,11 +19876,11 @@
       </c>
       <c r="R115" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A116" s="17" t="s">
+      <c r="A116" s="15" t="s">
         <v>136</v>
       </c>
       <c r="B116" s="9" t="s">
@@ -19122,7 +19934,7 @@
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A117" s="17" t="s">
+      <c r="A117" s="15" t="s">
         <v>137</v>
       </c>
       <c r="B117" s="9" t="s">
@@ -19176,7 +19988,7 @@
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A118" s="17" t="s">
+      <c r="A118" s="15" t="s">
         <v>138</v>
       </c>
       <c r="B118" s="9" t="s">
@@ -19230,7 +20042,7 @@
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A119" s="17" t="s">
+      <c r="A119" s="15" t="s">
         <v>139</v>
       </c>
       <c r="B119" s="9" t="s">
@@ -19284,7 +20096,7 @@
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A120" s="17" t="s">
+      <c r="A120" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B120" s="9" t="s">
@@ -19338,7 +20150,7 @@
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A121" s="17" t="s">
+      <c r="A121" s="15" t="s">
         <v>141</v>
       </c>
       <c r="B121" s="9" t="s">
@@ -19392,7 +20204,7 @@
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A122" s="17" t="s">
+      <c r="A122" s="15" t="s">
         <v>142</v>
       </c>
       <c r="B122" s="9" t="s">
@@ -19446,7 +20258,7 @@
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A123" s="17" t="s">
+      <c r="A123" s="15" t="s">
         <v>143</v>
       </c>
       <c r="B123" s="9" t="s">
@@ -19500,7 +20312,7 @@
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A124" s="17" t="s">
+      <c r="A124" s="15" t="s">
         <v>144</v>
       </c>
       <c r="B124" s="9" t="s">
@@ -19554,7 +20366,7 @@
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A125" s="17" t="s">
+      <c r="A125" s="15" t="s">
         <v>145</v>
       </c>
       <c r="B125" s="9" t="s">
@@ -19608,7 +20420,7 @@
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A126" s="17" t="s">
+      <c r="A126" s="15" t="s">
         <v>146</v>
       </c>
       <c r="B126" s="9" t="s">
@@ -19662,7 +20474,7 @@
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A127" s="17" t="s">
+      <c r="A127" s="15" t="s">
         <v>147</v>
       </c>
       <c r="B127" s="9" t="s">
@@ -19716,7 +20528,7 @@
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A128" s="17" t="s">
+      <c r="A128" s="15" t="s">
         <v>148</v>
       </c>
       <c r="B128" s="9" t="s">
@@ -19770,7 +20582,7 @@
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A129" s="17" t="s">
+      <c r="A129" s="15" t="s">
         <v>149</v>
       </c>
       <c r="B129" s="9" t="s">
@@ -19824,7 +20636,7 @@
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A130" s="17" t="s">
+      <c r="A130" s="15" t="s">
         <v>150</v>
       </c>
       <c r="B130" s="9" t="s">
@@ -19878,7 +20690,7 @@
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A131" s="17" t="s">
+      <c r="A131" s="15" t="s">
         <v>151</v>
       </c>
       <c r="B131" s="9" t="s">
@@ -19932,7 +20744,7 @@
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A132" s="17" t="s">
+      <c r="A132" s="15" t="s">
         <v>152</v>
       </c>
       <c r="B132" s="9" t="s">
@@ -19986,7 +20798,7 @@
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A133" s="17" t="s">
+      <c r="A133" s="15" t="s">
         <v>153</v>
       </c>
       <c r="B133" s="9" t="s">
@@ -20040,7 +20852,7 @@
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A134" s="17" t="s">
+      <c r="A134" s="15" t="s">
         <v>154</v>
       </c>
       <c r="B134" s="9" t="s">
@@ -20094,7 +20906,7 @@
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A135" s="17" t="s">
+      <c r="A135" s="15" t="s">
         <v>155</v>
       </c>
       <c r="B135" s="9" t="s">
@@ -20148,7 +20960,7 @@
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A136" s="17" t="s">
+      <c r="A136" s="15" t="s">
         <v>156</v>
       </c>
       <c r="B136" s="9" t="s">
@@ -20202,7 +21014,7 @@
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A137" s="17" t="s">
+      <c r="A137" s="15" t="s">
         <v>157</v>
       </c>
       <c r="B137" s="9" t="s">
@@ -20256,7 +21068,7 @@
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A138" s="17" t="s">
+      <c r="A138" s="15" t="s">
         <v>158</v>
       </c>
       <c r="B138" s="9" t="s">
@@ -20310,7 +21122,7 @@
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A139" s="17" t="s">
+      <c r="A139" s="15" t="s">
         <v>159</v>
       </c>
       <c r="B139" s="9" t="s">
@@ -20364,7 +21176,7 @@
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A140" s="17" t="s">
+      <c r="A140" s="15" t="s">
         <v>160</v>
       </c>
       <c r="B140" s="9" t="s">
@@ -20418,7 +21230,7 @@
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A141" s="17" t="s">
+      <c r="A141" s="15" t="s">
         <v>161</v>
       </c>
       <c r="B141" s="9" t="s">
@@ -20472,7 +21284,7 @@
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A142" s="17" t="s">
+      <c r="A142" s="15" t="s">
         <v>162</v>
       </c>
       <c r="B142" s="9" t="s">
@@ -20526,7 +21338,7 @@
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A143" s="17" t="s">
+      <c r="A143" s="15" t="s">
         <v>163</v>
       </c>
       <c r="B143" s="9" t="s">
@@ -20580,7 +21392,7 @@
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A144" s="17" t="s">
+      <c r="A144" s="15" t="s">
         <v>164</v>
       </c>
       <c r="B144" s="9" t="s">
@@ -20634,7 +21446,7 @@
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A145" s="17" t="s">
+      <c r="A145" s="15" t="s">
         <v>165</v>
       </c>
       <c r="B145" s="9" t="s">
@@ -20688,7 +21500,7 @@
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A146" s="17" t="s">
+      <c r="A146" s="15" t="s">
         <v>166</v>
       </c>
       <c r="B146" s="9" t="s">
@@ -20763,7 +21575,7 @@
       <c r="G148" s="4"/>
       <c r="H148" s="6">
         <f>AVERAGE(H3:H146)</f>
-        <v>0.3707865168539326</v>
+        <v>0.43820224719101125</v>
       </c>
       <c r="I148" s="6">
         <f t="shared" ref="I148:J148" si="24">AVERAGE(I3:I146)</f>
@@ -20771,7 +21583,7 @@
       </c>
       <c r="J148" s="6">
         <f t="shared" si="24"/>
-        <v>0.48314606741573035</v>
+        <v>0.42696629213483145</v>
       </c>
       <c r="Q148" s="4"/>
       <c r="R148" s="4"/>
@@ -22629,20 +23441,20 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C75:F98 B147:B290 B3:B115">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D150 C99:C115 C147:C170 C3:C74">
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116:F146">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="s">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="s">
       <formula>NOT(ISERROR(SEARCH("s",B116)))</formula>
     </cfRule>
   </conditionalFormatting>
